--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>Symptoms in Paper</t>
+  </si>
+  <si>
+    <t>Running time /epoch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,48 +108,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -165,23 +141,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,1386 +451,1391 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>12.86</v>
-      </c>
-      <c r="C2">
-        <v>17.64</v>
-      </c>
-      <c r="D2" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="E2">
-        <v>12.7</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>15.16</v>
+        <v>12.86</v>
       </c>
       <c r="C3">
-        <v>21.65</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15.36</v>
+        <v>17.64</v>
+      </c>
+      <c r="D3">
+        <v>16.5</v>
       </c>
       <c r="E3">
-        <v>15.16</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>29.72</v>
+        <v>15.16</v>
       </c>
       <c r="C4">
-        <v>50.17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>29.08</v>
+        <v>21.65</v>
+      </c>
+      <c r="D4">
+        <v>15.36</v>
       </c>
       <c r="E4">
-        <v>29.09</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>22.79</v>
+        <v>29.72</v>
       </c>
       <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1">
-        <v>22.95</v>
+        <v>50.17</v>
+      </c>
+      <c r="D5">
+        <v>29.08</v>
       </c>
       <c r="E5">
-        <v>22.78</v>
+        <v>29.09</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>25.33</v>
+        <v>22.79</v>
       </c>
       <c r="C6">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="D6" s="1">
-        <v>23.07</v>
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>22.95</v>
       </c>
       <c r="E6">
-        <v>22.68</v>
+        <v>22.78</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>25.33</v>
+      </c>
+      <c r="C7">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="D7">
+        <v>23.07</v>
+      </c>
+      <c r="E7">
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>15.3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>22.2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8">
         <v>15.12</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>15.07</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="2">
         <v>92.46</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="2">
         <v>89.37</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="2">
         <v>90.02</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="2">
         <v>91.67</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="2">
         <v>88.14</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="2">
         <v>88.67</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="2">
         <v>93.65</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M14" s="2">
         <v>90.25</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N14" s="2">
         <v>89.17</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="2">
         <v>94.84</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P14" s="2">
         <v>92.23</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q14" s="2">
         <v>91.41</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="2">
         <v>91.67</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="2">
         <v>88.33</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="2">
         <v>89.38</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="2">
         <v>94.05</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="2">
         <v>92.56</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="2">
         <v>90.87</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L15" s="2">
         <v>96.03</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M15" s="2">
         <v>95.34</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N15" s="2">
         <v>93.58</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O15" s="2">
         <v>96.43</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P15" s="2">
         <v>96.37</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q15" s="2">
         <v>92.64</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="2">
         <v>95.47</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="2">
         <v>96.73</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="2">
         <v>91.94</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="2">
         <v>94.44</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="2">
         <v>94.62</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="2">
         <v>89.55</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="2">
         <v>95.24</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M16" s="2">
         <v>94.38</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N16" s="2">
         <v>92.13</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O16" s="2">
         <v>94.84</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P16" s="2">
         <v>94.24</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q16" s="2">
         <v>92.16</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="2">
         <v>95.63</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="2">
         <v>94.12</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="2">
         <v>92.7</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="2">
         <v>95.24</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="2">
         <v>95.29</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="2">
         <v>91.14</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L17" s="2">
         <v>95.24</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M17" s="2">
         <v>95.35</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="2">
         <v>90.69</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O17" s="2">
         <v>94.44</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P17" s="2">
         <v>93.47</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q17" s="2">
         <v>88.94</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="2">
         <v>95.63</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="2">
         <v>95.79</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="2">
         <v>92.32</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="2">
         <v>94.84</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="2">
         <v>92.8</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="2">
         <v>91.48</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L18" s="2">
         <v>95.63</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M18" s="2">
         <v>94.68</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="2">
         <v>91.87</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="2">
         <v>96.03</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P18" s="2">
         <v>95.07</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q18" s="2">
         <v>92.89</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="2">
         <v>94.84</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="2">
         <v>93.24</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="2">
         <v>91.79</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="2">
         <v>94.44</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="2">
         <v>92.77</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="2">
         <v>90.84</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L19" s="2">
         <v>95.24</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M19" s="2">
         <v>93.3</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N19" s="2">
         <v>92.2</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O19" s="2">
         <v>95.24</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P19" s="2">
         <v>94.5</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q19" s="2">
         <v>92.36</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="2">
         <v>84.13</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="2">
         <v>74.23</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="2">
         <v>72.86</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="2">
         <v>86.9</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="2">
         <v>80.88</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="2">
         <v>77.569999999999993</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="2">
         <v>85.32</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="2">
         <v>82.81</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="2">
         <v>72.5</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="2">
         <v>87.3</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P20" s="2">
         <v>81.7</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q20" s="2">
         <v>76.02</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="2">
         <v>82.94</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="2">
         <v>74.27</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="2">
         <v>73.760000000000005</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="2">
         <v>82.94</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="2">
         <v>75.39</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="2">
         <v>73.760000000000005</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L21" s="2">
         <v>86.9</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M21" s="2">
         <v>78.53</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N21" s="2">
         <v>80.59</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O21" s="2">
         <v>85.32</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P21" s="2">
         <v>77.53</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q21" s="2">
         <v>77.709999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="2">
         <v>86.51</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="2">
         <v>82.49</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="2">
         <v>80.89</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="2">
         <v>86.51</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="2">
         <v>79.5</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="2">
         <v>76.31</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L22" s="2">
         <v>87.7</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M22" s="2">
         <v>82.16</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="2">
         <v>81.95</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="2">
         <v>88.49</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P22" s="2">
         <v>85.08</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q22" s="2">
         <v>82.67</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="2">
         <v>84.13</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="2">
         <v>81.66</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="2">
         <v>78.900000000000006</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="2">
         <v>86.51</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="2">
         <v>82.38</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="2">
         <v>80.900000000000006</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L23" s="2">
         <v>85.71</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M23" s="2">
         <v>78.95</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N23" s="2">
         <v>77.77</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="2">
         <v>83.73</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P23" s="2">
         <v>74.959999999999994</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q23" s="2">
         <v>75.7</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="2">
         <v>78.569999999999993</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="2">
         <v>69.33</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="2">
         <v>67.42</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="2">
         <v>80.95</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="2">
         <v>78.17</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="2">
         <v>68.97</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L24" s="2">
         <v>82.94</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M24" s="2">
         <v>75.040000000000006</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N24" s="2">
         <v>75.62</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="2">
         <v>80.56</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P24" s="2">
         <v>78.260000000000005</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q24" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="2">
         <v>84.52</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="2">
         <v>73.290000000000006</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="2">
         <v>77.36</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="2">
         <v>84.13</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G25" s="2">
         <v>77.150000000000006</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="2">
         <v>79.53</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L25" s="2">
         <v>83.33</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M25" s="2">
         <v>73.87</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N25" s="2">
         <v>79.56</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O25" s="2">
         <v>86.51</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P25" s="2">
         <v>83.51</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q25" s="2">
         <v>81.430000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>22</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="J28" s="2" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="O28" s="2" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="O29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="3" t="s">
+      <c r="O30" s="3"/>
+      <c r="P30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" ref="C30:C41" si="0">ABS((C13-L13))</f>
+      <c r="C31" s="2">
+        <f t="shared" ref="C31:C36" si="0">ABS((C14-L14))</f>
         <v>1.1900000000000119</v>
       </c>
-      <c r="D30" s="4">
-        <f t="shared" ref="D30:D41" si="1">ABS((D13-M13))</f>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:D37" si="1">ABS((D14-M14))</f>
         <v>0.87999999999999545</v>
       </c>
-      <c r="E30" s="4">
-        <f t="shared" ref="E30:E41" si="2">ABS((E13-N13))</f>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:E37" si="2">ABS((E14-N14))</f>
         <v>0.84999999999999432</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" ref="D30:H30" si="3">ABS((F13-O13))</f>
+      <c r="F31" s="2">
+        <f t="shared" ref="F31:H31" si="3">ABS((F14-O14))</f>
         <v>3.1700000000000017</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G31" s="2">
         <f t="shared" si="3"/>
         <v>4.0900000000000034</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="2">
         <f t="shared" si="3"/>
         <v>2.7399999999999949</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K31" s="2">
         <v>87.78</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L31" s="2">
         <v>89.01</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M31" s="2">
         <v>84.61</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P31" s="2">
         <v>96.58</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q31" s="2">
         <v>96.12</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R31" s="2">
         <v>96.59</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>4.3599999999999994</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D32" s="2">
         <f t="shared" si="1"/>
         <v>7.0100000000000051</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="2">
         <f t="shared" si="2"/>
         <v>4.2000000000000028</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" ref="F31:F41" si="4">ABS((F14-O14))</f>
+      <c r="F32" s="2">
+        <f t="shared" ref="F32:F42" si="4">ABS((F15-O15))</f>
         <v>2.3800000000000097</v>
       </c>
-      <c r="G31" s="4">
-        <f t="shared" ref="G31:G41" si="5">ABS((G14-P14))</f>
+      <c r="G32" s="2">
+        <f t="shared" ref="G32:G42" si="5">ABS((G15-P15))</f>
         <v>3.8100000000000023</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" ref="H31:H41" si="6">ABS((H14-Q14))</f>
+      <c r="H32" s="2">
+        <f t="shared" ref="H32:H42" si="6">ABS((H15-Q15))</f>
         <v>1.769999999999996</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K32" s="2">
         <v>94.62</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L32" s="2">
         <v>93.99</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M32" s="2">
         <v>93.65</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P32" s="2">
         <v>96.82</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q32" s="2">
         <v>96.56</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R32" s="2">
         <v>96.64</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>0.23000000000000398</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D33" s="2">
         <f t="shared" si="1"/>
         <v>2.3500000000000085</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="2">
         <f t="shared" si="2"/>
         <v>0.18999999999999773</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="2">
         <f t="shared" si="4"/>
         <v>0.40000000000000568</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G33" s="2">
         <f t="shared" si="5"/>
         <v>0.38000000000000966</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H33" s="2">
         <f t="shared" si="6"/>
         <v>2.6099999999999994</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K33" s="2">
         <v>95.84</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L33" s="2">
         <v>95.29</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M33" s="2">
         <v>95.36</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P33" s="2">
         <v>95.6</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q33" s="2">
         <v>95.02</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R33" s="2">
         <v>95.31</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>0.39000000000000057</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D34" s="2">
         <f t="shared" si="1"/>
         <v>1.2299999999999898</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="2">
         <f t="shared" si="2"/>
         <v>2.0100000000000051</v>
       </c>
-      <c r="F33" s="4">
-        <f>ABS((F16-O17))</f>
+      <c r="F34" s="2">
+        <f t="shared" ref="F34:H35" si="7">ABS((F17-O18))</f>
         <v>0.79000000000000625</v>
       </c>
-      <c r="G33" s="4">
-        <f>ABS((G16-P17))</f>
+      <c r="G34" s="2">
+        <f t="shared" si="7"/>
         <v>0.22000000000001307</v>
       </c>
-      <c r="H33" s="4">
-        <f>ABS((H16-Q17))</f>
+      <c r="H34" s="2">
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K34" s="2">
         <v>95.84</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L34" s="2">
         <v>95.98</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M34" s="2">
         <v>94.93</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P34" s="2">
         <v>97.07</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q34" s="2">
         <v>96.85</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R34" s="2">
         <v>96.69</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="2">
         <f t="shared" si="1"/>
         <v>1.1099999999999994</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="2">
         <f t="shared" si="2"/>
         <v>0.44999999999998863</v>
       </c>
-      <c r="F34" s="4">
-        <f>ABS((F17-O18))</f>
+      <c r="F35" s="2">
+        <f t="shared" si="7"/>
         <v>0.39999999999999147</v>
       </c>
-      <c r="G34" s="4">
-        <f>ABS((G17-P18))</f>
+      <c r="G35" s="2">
+        <f t="shared" si="7"/>
         <v>1.7000000000000028</v>
       </c>
-      <c r="H34" s="4">
-        <f>ABS((H17-Q18))</f>
+      <c r="H35" s="2">
+        <f t="shared" si="7"/>
         <v>0.87999999999999545</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K35" s="2">
         <v>96.33</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L35" s="2">
         <v>95.9</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M35" s="2">
         <v>96.41</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P35" s="2">
         <v>97.07</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q35" s="2">
         <v>96.85</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R35" s="2">
         <v>96.99</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>0.39999999999999147</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D36" s="2">
         <f t="shared" si="1"/>
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="2">
         <f t="shared" si="2"/>
         <v>0.40999999999999659</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="2">
         <f t="shared" si="4"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="2">
         <f t="shared" si="5"/>
         <v>1.730000000000004</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="2">
         <f t="shared" si="6"/>
         <v>1.519999999999996</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K36" s="2">
         <v>95.84</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L36" s="2">
         <v>95.43</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M36" s="2">
         <v>95.15</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P36" s="2">
         <v>96.33</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q36" s="2">
         <v>95.65</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R36" s="2">
         <v>96.41</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="4">
-        <f>ABS((C19-L19))</f>
+      <c r="C37" s="2">
+        <f>ABS((C20-L20))</f>
         <v>1.1899999999999977</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D37" s="2">
         <f t="shared" si="1"/>
         <v>8.5799999999999983</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="2">
         <f t="shared" si="2"/>
         <v>0.35999999999999943</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="2">
         <f t="shared" si="4"/>
         <v>0.39999999999999147</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="2">
         <f t="shared" si="5"/>
         <v>0.82000000000000739</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H37" s="2">
         <f t="shared" si="6"/>
         <v>1.5499999999999972</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="4">
-        <f t="shared" ref="C37:C41" si="7">ABS((C20-L20))</f>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38:C42" si="8">ABS((C21-L21))</f>
         <v>3.960000000000008</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" ref="D37:D41" si="8">ABS((D20-M20))</f>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38:D42" si="9">ABS((D21-M21))</f>
         <v>4.2600000000000051</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" ref="E37:E41" si="9">ABS((E20-N20))</f>
+      <c r="E38" s="2">
+        <f t="shared" ref="E38:E42" si="10">ABS((E21-N21))</f>
         <v>6.8299999999999983</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="2">
         <f t="shared" si="4"/>
         <v>2.3799999999999955</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G38" s="2">
         <f t="shared" si="5"/>
         <v>2.1400000000000006</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H38" s="2">
         <f t="shared" si="6"/>
         <v>3.9499999999999886</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="4">
-        <f t="shared" si="7"/>
+      <c r="C39" s="2">
+        <f t="shared" si="8"/>
         <v>1.1899999999999977</v>
       </c>
-      <c r="D38" s="4">
-        <f t="shared" si="8"/>
+      <c r="D39" s="2">
+        <f t="shared" si="9"/>
         <v>0.32999999999999829</v>
       </c>
-      <c r="E38" s="4">
-        <f t="shared" si="9"/>
+      <c r="E39" s="2">
+        <f t="shared" si="10"/>
         <v>1.0600000000000023</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F39" s="2">
         <f t="shared" si="4"/>
         <v>1.9799999999999898</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G39" s="2">
         <f t="shared" si="5"/>
         <v>5.5799999999999983</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H39" s="2">
         <f t="shared" si="6"/>
         <v>6.3599999999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="4">
-        <f t="shared" si="7"/>
+      <c r="C40" s="2">
+        <f t="shared" si="8"/>
         <v>1.5799999999999983</v>
       </c>
-      <c r="D39" s="4">
-        <f t="shared" si="8"/>
+      <c r="D40" s="2">
+        <f t="shared" si="9"/>
         <v>2.7099999999999937</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" si="9"/>
+      <c r="E40" s="2">
+        <f t="shared" si="10"/>
         <v>1.1300000000000097</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="2">
         <f t="shared" si="4"/>
         <v>2.7800000000000011</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="2">
         <f t="shared" si="5"/>
         <v>7.4200000000000017</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="2">
         <f t="shared" si="6"/>
         <v>5.2000000000000028</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="4">
-        <f t="shared" si="7"/>
+      <c r="C41" s="2">
+        <f t="shared" si="8"/>
         <v>4.3700000000000045</v>
       </c>
-      <c r="D40" s="4">
-        <f t="shared" si="8"/>
+      <c r="D41" s="2">
+        <f t="shared" si="9"/>
         <v>5.710000000000008</v>
       </c>
-      <c r="E40" s="4">
-        <f t="shared" si="9"/>
+      <c r="E41" s="2">
+        <f t="shared" si="10"/>
         <v>8.2000000000000028</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="2">
         <f t="shared" si="4"/>
         <v>0.39000000000000057</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="2">
         <f t="shared" si="5"/>
         <v>9.0000000000003411E-2</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="2">
         <f t="shared" si="6"/>
         <v>3.0000000000001137E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="4">
-        <f t="shared" si="7"/>
+      <c r="C42" s="2">
+        <f t="shared" si="8"/>
         <v>1.1899999999999977</v>
       </c>
-      <c r="D41" s="4">
-        <f t="shared" si="8"/>
+      <c r="D42" s="2">
+        <f t="shared" si="9"/>
         <v>0.57999999999999829</v>
       </c>
-      <c r="E41" s="4">
-        <f t="shared" si="9"/>
+      <c r="E42" s="2">
+        <f t="shared" si="10"/>
         <v>2.2000000000000028</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="2">
         <f t="shared" si="4"/>
         <v>2.3800000000000097</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="2">
         <f t="shared" si="5"/>
         <v>6.3599999999999994</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="2">
         <f t="shared" si="6"/>
         <v>1.9000000000000057</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -94,6 +95,45 @@
   </si>
   <si>
     <t>Running time /epoch</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Single Task Disease Paper</t>
+  </si>
+  <si>
+    <t>Single Task Disease Experiment</t>
+  </si>
+  <si>
+    <t>Single Task Severity paper</t>
+  </si>
+  <si>
+    <t>Single Task Severity Experiment</t>
+  </si>
+  <si>
+    <t>Multitask Disease Paper</t>
+  </si>
+  <si>
+    <t>Multitask Severity Paper</t>
+  </si>
+  <si>
+    <t>Multitask Severity Experiment</t>
+  </si>
+  <si>
+    <t>Multitask Disease Experiment</t>
   </si>
 </sst>
 </file>
@@ -144,12 +184,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,42 +630,42 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -636,8 +684,8 @@
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="1" t="s">
         <v>14</v>
       </c>
@@ -658,7 +706,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -682,7 +730,7 @@
       <c r="H14" s="2">
         <v>88.67</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -708,7 +756,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,7 +778,7 @@
       <c r="H15" s="2">
         <v>90.87</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="1" t="s">
         <v>6</v>
       </c>
@@ -754,7 +802,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -776,7 +824,7 @@
       <c r="H16" s="2">
         <v>89.55</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="1" t="s">
         <v>10</v>
       </c>
@@ -800,7 +848,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,7 +870,7 @@
       <c r="H17" s="2">
         <v>91.14</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,7 +894,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,7 +916,7 @@
       <c r="H18" s="2">
         <v>91.48</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,7 +940,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,7 +962,7 @@
       <c r="H19" s="2">
         <v>90.84</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,7 +986,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -962,7 +1010,7 @@
       <c r="H20" s="2">
         <v>77.569999999999993</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -988,7 +1036,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1058,7 @@
       <c r="H21" s="2">
         <v>73.760000000000005</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1082,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1104,7 @@
       <c r="H22" s="2">
         <v>76.31</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1128,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1150,7 @@
       <c r="H23" s="2">
         <v>80.900000000000006</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1174,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1196,7 @@
       <c r="H24" s="2">
         <v>68.97</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1220,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1242,7 @@
       <c r="H25" s="2">
         <v>79.53</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1229,42 +1277,42 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="J29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="O29" s="3" t="s">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="O29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,7 +1331,7 @@
       <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1341,7 @@
       <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="3"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,7 +1353,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1361,7 +1409,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1463,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1517,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1523,7 +1571,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1577,7 +1625,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +1679,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1663,7 +1711,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1741,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1723,7 +1771,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1753,7 +1801,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
@@ -1783,7 +1831,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1839,4 +1887,785 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>95.63</v>
+      </c>
+      <c r="D3" s="4">
+        <v>94.12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>92.7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>95.24</v>
+      </c>
+      <c r="I3" s="4">
+        <v>95.16</v>
+      </c>
+      <c r="J3">
+        <v>90.24</v>
+      </c>
+      <c r="K3" s="4">
+        <v>91.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>95.47</v>
+      </c>
+      <c r="D4" s="4">
+        <v>96.73</v>
+      </c>
+      <c r="E4" s="4">
+        <v>91.94</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>96.03</v>
+      </c>
+      <c r="I4" s="4">
+        <v>94.31</v>
+      </c>
+      <c r="J4">
+        <v>94.46</v>
+      </c>
+      <c r="K4" s="4">
+        <v>94.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>94.84</v>
+      </c>
+      <c r="D5" s="4">
+        <v>93.24</v>
+      </c>
+      <c r="E5" s="4">
+        <v>91.79</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>95.63</v>
+      </c>
+      <c r="I5">
+        <v>93.28</v>
+      </c>
+      <c r="J5">
+        <v>95.73</v>
+      </c>
+      <c r="K5" s="4">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>92.46</v>
+      </c>
+      <c r="D6" s="4">
+        <v>89.37</v>
+      </c>
+      <c r="E6" s="4">
+        <v>90.02</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>95.24</v>
+      </c>
+      <c r="I6" s="4">
+        <v>92.52</v>
+      </c>
+      <c r="J6">
+        <v>92.87</v>
+      </c>
+      <c r="K6" s="4">
+        <v>92.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>91.67</v>
+      </c>
+      <c r="D7" s="4">
+        <v>88.33</v>
+      </c>
+      <c r="E7" s="4">
+        <v>89.38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>92.46</v>
+      </c>
+      <c r="I7" s="4">
+        <v>89.68</v>
+      </c>
+      <c r="J7">
+        <v>89.74</v>
+      </c>
+      <c r="K7" s="4">
+        <v>90.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>86.51</v>
+      </c>
+      <c r="D11" s="4">
+        <v>82.49</v>
+      </c>
+      <c r="E11" s="4">
+        <v>80.89</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
+        <v>87.3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>83.97</v>
+      </c>
+      <c r="J11">
+        <v>82.93</v>
+      </c>
+      <c r="K11" s="4">
+        <v>85.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>84.52</v>
+      </c>
+      <c r="D12" s="4">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="E12" s="4">
+        <v>77.36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>86.11</v>
+      </c>
+      <c r="I12" s="4">
+        <v>82.62</v>
+      </c>
+      <c r="J12">
+        <v>83.53</v>
+      </c>
+      <c r="K12" s="4">
+        <v>83.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>84.13</v>
+      </c>
+      <c r="D13" s="4">
+        <v>74.23</v>
+      </c>
+      <c r="E13" s="4">
+        <v>72.86</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6">
+        <v>86.9</v>
+      </c>
+      <c r="I13" s="4">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="J13">
+        <v>81.89</v>
+      </c>
+      <c r="K13" s="4">
+        <v>82.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>84.13</v>
+      </c>
+      <c r="D14" s="4">
+        <v>81.66</v>
+      </c>
+      <c r="E14" s="4">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>86.51</v>
+      </c>
+      <c r="I14" s="4">
+        <v>81.41</v>
+      </c>
+      <c r="J14">
+        <v>83.49</v>
+      </c>
+      <c r="K14" s="4">
+        <v>80.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>82.94</v>
+      </c>
+      <c r="D15" s="4">
+        <v>74.27</v>
+      </c>
+      <c r="E15" s="4">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>87.3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>79.11</v>
+      </c>
+      <c r="J15">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="K15" s="4">
+        <v>79.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>95.24</v>
+      </c>
+      <c r="D19" s="4">
+        <v>95.29</v>
+      </c>
+      <c r="E19" s="4">
+        <v>91.14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>96.03</v>
+      </c>
+      <c r="I19" s="4">
+        <v>93.81</v>
+      </c>
+      <c r="J19" s="4">
+        <v>95.26</v>
+      </c>
+      <c r="K19" s="4">
+        <v>92.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4">
+        <v>94.44</v>
+      </c>
+      <c r="D20" s="4">
+        <v>94.62</v>
+      </c>
+      <c r="E20" s="4">
+        <v>89.55</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>94.84</v>
+      </c>
+      <c r="I20" s="4">
+        <v>92.59</v>
+      </c>
+      <c r="J20" s="4">
+        <v>93.59</v>
+      </c>
+      <c r="K20" s="4">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <v>94.44</v>
+      </c>
+      <c r="D21" s="4">
+        <v>92.77</v>
+      </c>
+      <c r="E21" s="4">
+        <v>90.84</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>94.44</v>
+      </c>
+      <c r="I21" s="4">
+        <v>92.21</v>
+      </c>
+      <c r="J21" s="4">
+        <v>92.41</v>
+      </c>
+      <c r="K21" s="4">
+        <v>92.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4">
+        <v>94.05</v>
+      </c>
+      <c r="D22" s="4">
+        <v>92.56</v>
+      </c>
+      <c r="E22" s="4">
+        <v>90.87</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>94.44</v>
+      </c>
+      <c r="I22" s="4">
+        <v>91.76</v>
+      </c>
+      <c r="J22" s="4">
+        <v>91.94</v>
+      </c>
+      <c r="K22" s="4">
+        <v>91.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>91.67</v>
+      </c>
+      <c r="D23" s="4">
+        <v>88.14</v>
+      </c>
+      <c r="E23" s="4">
+        <v>88.67</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>93.25</v>
+      </c>
+      <c r="I23" s="4">
+        <v>89.93</v>
+      </c>
+      <c r="J23" s="4">
+        <v>89.9</v>
+      </c>
+      <c r="K23" s="4">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4">
+        <v>86.9</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>80.88</v>
+      </c>
+      <c r="E27" s="4">
+        <v>77.569999999999993</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>88.1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>81.42</v>
+      </c>
+      <c r="J27" s="4">
+        <v>82.24</v>
+      </c>
+      <c r="K27" s="4">
+        <v>81.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4">
+        <v>86.51</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>79.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>76.31</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>86.9</v>
+      </c>
+      <c r="I28" s="4">
+        <v>80.97</v>
+      </c>
+      <c r="J28" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="K28" s="4">
+        <v>80.819999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4">
+        <v>86.51</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>82.38</v>
+      </c>
+      <c r="E29" s="4">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>87.3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>80.569999999999993</v>
+      </c>
+      <c r="J29" s="4">
+        <v>80.41</v>
+      </c>
+      <c r="K29" s="4">
+        <v>81.239999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4">
+        <v>84.13</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="E30" s="4">
+        <v>79.53</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>88.1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>79.33</v>
+      </c>
+      <c r="J30" s="4">
+        <v>81.41</v>
+      </c>
+      <c r="K30" s="4">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4">
+        <v>82.94</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>75.39</v>
+      </c>
+      <c r="E31" s="4">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>82.94</v>
+      </c>
+      <c r="I31" s="4">
+        <v>72.75</v>
+      </c>
+      <c r="J31" s="4">
+        <v>71.34</v>
+      </c>
+      <c r="K31" s="4">
+        <v>76.430000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:K7">
+    <sortCondition descending="1" ref="I3:I7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -134,6 +135,51 @@
   </si>
   <si>
     <t>Multitask Disease Experiment</t>
+  </si>
+  <si>
+    <t>81.13,81.21,81.18,81.11</t>
+  </si>
+  <si>
+    <t>Single Task Child</t>
+  </si>
+  <si>
+    <t>Single Task super</t>
+  </si>
+  <si>
+    <t>Multitask Super</t>
+  </si>
+  <si>
+    <t>Multitask Child</t>
+  </si>
+  <si>
+    <t>54.57,54.75,54.41,54.19</t>
+  </si>
+  <si>
+    <t>68.67,68.89,68.69,68.67</t>
+  </si>
+  <si>
+    <t>72.90,72.97,72.79,72.63</t>
+  </si>
+  <si>
+    <t>83.50,83.50,83.52,83.46</t>
+  </si>
+  <si>
+    <t>55.89,55.90,55.76,55.37</t>
+  </si>
+  <si>
+    <t>72.88,72.79,72.72,72.53</t>
+  </si>
+  <si>
+    <t>66.00,66.27,66.04,66.04</t>
+  </si>
+  <si>
+    <t>85.00,85.08,85.00,85.00</t>
+  </si>
+  <si>
+    <t>73.76,74.23,73.64,73.57</t>
+  </si>
+  <si>
+    <t>74.40,74.49,74.37,74.29</t>
   </si>
 </sst>
 </file>
@@ -184,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,12 +1909,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="J12:J13"/>
@@ -1878,12 +1925,12 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1893,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,4 +2715,358 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:E7">
+    <sortCondition ref="A3:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>74.40,74.49,74.37,74.29</t>
+  </si>
+  <si>
+    <t>83.82,83.88,83.85,83.82</t>
   </si>
 </sst>
 </file>
@@ -244,10 +247,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,42 +680,42 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7" t="s">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -731,8 +734,8 @@
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="1" t="s">
         <v>14</v>
       </c>
@@ -753,7 +756,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -777,7 +780,7 @@
       <c r="H14" s="2">
         <v>88.67</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -803,7 +806,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,7 +828,7 @@
       <c r="H15" s="2">
         <v>90.87</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,7 +852,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -871,7 +874,7 @@
       <c r="H16" s="2">
         <v>89.55</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,7 +898,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,7 +920,7 @@
       <c r="H17" s="2">
         <v>91.14</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,7 +944,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -963,7 +966,7 @@
       <c r="H18" s="2">
         <v>91.48</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,7 +990,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1012,7 @@
       <c r="H19" s="2">
         <v>90.84</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1036,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1057,7 +1060,7 @@
       <c r="H20" s="2">
         <v>77.569999999999993</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -1083,7 +1086,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1108,7 @@
       <c r="H21" s="2">
         <v>73.760000000000005</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1132,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,7 +1154,7 @@
       <c r="H22" s="2">
         <v>76.31</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1178,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="H23" s="2">
         <v>80.900000000000006</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1221,7 +1224,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1246,7 @@
       <c r="H24" s="2">
         <v>68.97</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1270,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1292,7 @@
       <c r="H25" s="2">
         <v>79.53</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1324,42 +1327,42 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="J29" s="7" t="s">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="O29" s="7" t="s">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="O29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1381,7 @@
       <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1388,7 +1391,7 @@
       <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="7"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1403,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1456,7 +1459,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1510,7 +1513,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1564,7 +1567,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1621,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1675,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1729,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1758,7 +1761,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1791,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1821,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1851,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +1881,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1909,12 +1912,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="J12:J13"/>
@@ -1925,12 +1928,12 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2722,7 +2725,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2756,7 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
@@ -2768,7 +2771,7 @@
       <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2875,7 +2878,7 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
@@ -2890,7 +2893,7 @@
       <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2930,7 +2933,9 @@
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="G13" s="3" t="s">

--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Multitask Disease Experiment</t>
   </si>
   <si>
-    <t>81.13,81.21,81.18,81.11</t>
-  </si>
-  <si>
     <t>Single Task Child</t>
   </si>
   <si>
@@ -150,39 +147,6 @@
   </si>
   <si>
     <t>Multitask Child</t>
-  </si>
-  <si>
-    <t>54.57,54.75,54.41,54.19</t>
-  </si>
-  <si>
-    <t>68.67,68.89,68.69,68.67</t>
-  </si>
-  <si>
-    <t>72.90,72.97,72.79,72.63</t>
-  </si>
-  <si>
-    <t>83.50,83.50,83.52,83.46</t>
-  </si>
-  <si>
-    <t>55.89,55.90,55.76,55.37</t>
-  </si>
-  <si>
-    <t>72.88,72.79,72.72,72.53</t>
-  </si>
-  <si>
-    <t>66.00,66.27,66.04,66.04</t>
-  </si>
-  <si>
-    <t>85.00,85.08,85.00,85.00</t>
-  </si>
-  <si>
-    <t>73.76,74.23,73.64,73.57</t>
-  </si>
-  <si>
-    <t>74.40,74.49,74.37,74.29</t>
-  </si>
-  <si>
-    <t>83.82,83.88,83.85,83.82</t>
   </si>
 </sst>
 </file>
@@ -534,7 +498,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B25"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,7 +2689,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,10 +2701,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2779,90 +2743,168 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="4">
+        <v>55.89</v>
+      </c>
+      <c r="C3" s="4">
+        <v>55.9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>55.76</v>
+      </c>
+      <c r="E3">
+        <v>55.37</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="4">
+        <v>54.57</v>
+      </c>
+      <c r="I3" s="4">
+        <v>54.75</v>
+      </c>
+      <c r="J3" s="4">
+        <v>54.41</v>
+      </c>
+      <c r="K3">
+        <v>54.19</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4">
+        <v>69.14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>69.16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>69.03</v>
+      </c>
+      <c r="E4">
+        <v>68.81</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="4">
+        <v>68.44</v>
+      </c>
+      <c r="I4" s="4">
+        <v>68.39</v>
+      </c>
+      <c r="J4" s="4">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="K4">
+        <v>68.13</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C5" s="4">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="D5" s="4">
+        <v>74.37</v>
+      </c>
+      <c r="E5">
+        <v>74.290000000000006</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="4">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="I5" s="4">
+        <v>74.23</v>
+      </c>
+      <c r="J5" s="4">
+        <v>73.64</v>
+      </c>
+      <c r="K5">
+        <v>73.569999999999993</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4">
+        <v>72.88</v>
+      </c>
+      <c r="C6" s="4">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="D6" s="4">
+        <v>72.72</v>
+      </c>
+      <c r="E6">
+        <v>72.53</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="I6" s="4">
+        <v>72.97</v>
+      </c>
+      <c r="J6" s="4">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="K6">
+        <v>72.63</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="C7" s="4">
+        <v>68.84</v>
+      </c>
+      <c r="D7" s="4">
+        <v>68.84</v>
+      </c>
+      <c r="E7">
+        <v>68.58</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="4">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="I7" s="4">
+        <v>67.62</v>
+      </c>
+      <c r="J7" s="4">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="K7">
+        <v>67.25</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2901,83 +2943,161 @@
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="4">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4">
+        <v>66.27</v>
+      </c>
+      <c r="D11" s="4">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="E11">
+        <v>66.040000000000006</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="4">
+        <v>68.67</v>
+      </c>
+      <c r="I11" s="4">
+        <v>68.89</v>
+      </c>
+      <c r="J11" s="4">
+        <v>68.69</v>
+      </c>
+      <c r="K11">
+        <v>68.67</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4">
+        <v>78.97</v>
+      </c>
+      <c r="C12" s="4">
+        <v>78.94</v>
+      </c>
+      <c r="D12" s="4">
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <v>78.88</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="H12" s="4">
+        <v>80.63</v>
+      </c>
+      <c r="I12" s="4">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="J12" s="4">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="K12">
+        <v>80.599999999999994</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="4">
+        <v>83.82</v>
+      </c>
+      <c r="C13" s="4">
+        <v>83.88</v>
+      </c>
+      <c r="D13" s="4">
+        <v>83.85</v>
+      </c>
+      <c r="E13">
+        <v>83.82</v>
+      </c>
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="H13" s="4">
+        <v>85</v>
+      </c>
+      <c r="I13" s="4">
+        <v>85.08</v>
+      </c>
+      <c r="J13" s="4">
+        <v>85</v>
+      </c>
+      <c r="K13">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4">
+        <v>81.13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>81.209999999999994</v>
+      </c>
+      <c r="D14" s="4">
+        <v>81.180000000000007</v>
+      </c>
+      <c r="E14">
+        <v>81.11</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="H14" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>83.52</v>
+      </c>
+      <c r="K14">
+        <v>83.46</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4">
+        <v>76.569999999999993</v>
+      </c>
+      <c r="C15" s="4">
+        <v>76.569999999999993</v>
+      </c>
+      <c r="D15" s="4">
+        <v>76.58</v>
+      </c>
+      <c r="E15">
+        <v>76.48</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="4">
+        <v>79.98</v>
+      </c>
+      <c r="I15" s="4">
+        <v>80.05</v>
+      </c>
+      <c r="J15" s="4">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>79.989999999999995</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>

--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="plot_coffee" sheetId="4" r:id="rId4"/>
+    <sheet name="plot_cifar" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -113,40 +115,40 @@
     <t>model</t>
   </si>
   <si>
-    <t>Single Task Disease Paper</t>
+    <t>Single Task Disease (Paper)</t>
   </si>
   <si>
-    <t>Single Task Disease Experiment</t>
+    <t>Single Task Severity (Paper)</t>
   </si>
   <si>
-    <t>Single Task Severity paper</t>
+    <t>Multitask Disease (Paper)</t>
   </si>
   <si>
-    <t>Single Task Severity Experiment</t>
+    <t>Multitask Severity (Paper)</t>
   </si>
   <si>
-    <t>Multitask Disease Paper</t>
+    <t>Single Task Disease (Experiment)</t>
   </si>
   <si>
-    <t>Multitask Severity Paper</t>
+    <t>Single Task Severity (Experiment)</t>
   </si>
   <si>
-    <t>Multitask Severity Experiment</t>
+    <t>Multitask Disease (Experiment)</t>
   </si>
   <si>
-    <t>Multitask Disease Experiment</t>
+    <t>Multitask Severity (Experiment)</t>
   </si>
   <si>
-    <t>Single Task Child</t>
+    <t>Single Task (100 class)</t>
   </si>
   <si>
-    <t>Single Task super</t>
+    <t>Single Task (20 class)</t>
   </si>
   <si>
-    <t>Multitask Super</t>
+    <t>Multitask (100 class)</t>
   </si>
   <si>
-    <t>Multitask Child</t>
+    <t>Multitask (20 class)</t>
   </si>
 </sst>
 </file>
@@ -230,6 +232,6780 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Disease Classifier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Task Disease (Paper)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>95.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CAD-4F0F-B790-C7BBE44A25D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multitask Disease (Paper)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>95.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CAD-4F0F-B790-C7BBE44A25D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="696631615"/>
+        <c:axId val="696637855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696631615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696637855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696637855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="696631615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Severity Classifier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Task Severity (Paper)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A866-4DBF-9E53-8AA09D5ECB08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multitask Severity (Paper)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A866-4DBF-9E53-8AA09D5ECB08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="696631615"/>
+        <c:axId val="696637855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696631615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696637855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696637855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="696631615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Disease Classifier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Task Disease (Experiment)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>95.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEB4-4A21-949E-A7F4B29D6F73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multitask Disease (Experiment)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$19:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>96.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEB4-4A21-949E-A7F4B29D6F73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="696631615"/>
+        <c:axId val="696637855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696631615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696637855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696637855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696631615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Severity Classifier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Task Severity (Experiment)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$11:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.11</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>87.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3290-439E-A5C6-24D404C3E8A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multitask Severity (Experiment)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$27:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3290-439E-A5C6-24D404C3E8A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="696631615"/>
+        <c:axId val="696637855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696631615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696637855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696637855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696631615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100 Class Classifier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Task (100 class)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>55.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.989999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B431-4CFA-9272-519497709E97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multitask (100 class)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>54.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.510000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B431-4CFA-9272-519497709E97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="696631615"/>
+        <c:axId val="696637855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696631615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696637855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696637855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696631615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20 Class Classifier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Task (20 class)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.569999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A29F-4C54-B723-EABBCE4D497B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multitask (20 class)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alexnet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogleNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$11:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A29F-4C54-B723-EABBCE4D497B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="696631615"/>
+        <c:axId val="696637855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696631615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696637855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696637855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696631615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>507206</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186928</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>507206</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186928</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>507206</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>186928</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>507206</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>173790</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>516403</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186928</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>516403</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1876,12 +8652,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="J12:J13"/>
@@ -1892,12 +8668,12 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,8 +8683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:E31"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,7 +8698,7 @@
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2104,10 +8880,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2289,14 +9065,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2482,10 +9258,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2688,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,7 +9480,7 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2904,7 +9680,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3194,4 +9970,34 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="plot_coffee" sheetId="4" r:id="rId4"/>
-    <sheet name="plot_cifar" sheetId="5" r:id="rId5"/>
+    <sheet name="cofee" sheetId="2" r:id="rId1"/>
+    <sheet name="cifar" sheetId="3" r:id="rId2"/>
+    <sheet name="plot_coffee" sheetId="4" r:id="rId3"/>
+    <sheet name="plot_cifar" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,21 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
   <si>
     <t>Model</t>
-  </si>
-  <si>
-    <t>Multitask</t>
-  </si>
-  <si>
-    <t>Symptoms</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
-    <t>Severity</t>
   </si>
   <si>
     <t>Alexnet</t>
@@ -49,55 +36,10 @@
     <t>Resnet</t>
   </si>
   <si>
-    <t>Resnet*</t>
-  </si>
-  <si>
     <t>MobileNetV2</t>
   </si>
   <si>
     <t>VGG16</t>
-  </si>
-  <si>
-    <t>Metrics in Paper</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>BioticStress</t>
-  </si>
-  <si>
-    <t>Single Task</t>
-  </si>
-  <si>
-    <t>Multi Task</t>
-  </si>
-  <si>
-    <t>Metrics in experiment</t>
-  </si>
-  <si>
-    <t>Diff</t>
-  </si>
-  <si>
-    <t>Symptoms in Experiment</t>
-  </si>
-  <si>
-    <t>Symptoms in Paper</t>
-  </si>
-  <si>
-    <t>Running time /epoch</t>
   </si>
   <si>
     <t>acc</t>
@@ -172,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -180,31 +122,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,9 +137,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,7 +194,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -316,7 +235,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
+              <c:f>cofee!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -375,7 +294,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -395,7 +313,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:f>cofee!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -418,7 +336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$7</c:f>
+              <c:f>cofee!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -451,7 +369,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$17</c:f>
+              <c:f>cofee!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +428,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -530,7 +447,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:f>cofee!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -553,7 +470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$19:$B$23</c:f>
+              <c:f>cofee!$B$19:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -685,7 +602,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -792,7 +708,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -834,7 +749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$9</c:f>
+              <c:f>cofee!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -893,7 +808,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -913,7 +827,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:f>cofee!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -936,7 +850,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$11:$B$15</c:f>
+              <c:f>cofee!$B$11:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -969,7 +883,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$25</c:f>
+              <c:f>cofee!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1028,7 +942,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1048,7 +961,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:f>cofee!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1071,7 +984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$B$31</c:f>
+              <c:f>cofee!$B$27:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1203,7 +1116,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1310,7 +1222,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1352,7 +1263,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
+              <c:f>cofee!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1411,7 +1322,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1432,7 +1342,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:f>cofee!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1455,7 +1365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$3:$H$7</c:f>
+              <c:f>cofee!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1488,7 +1398,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$17</c:f>
+              <c:f>cofee!$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1547,7 +1457,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1568,7 +1477,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:f>cofee!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1591,7 +1500,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$19:$H$23</c:f>
+              <c:f>cofee!$H$19:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1750,7 +1659,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1857,7 +1765,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1899,7 +1806,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$9</c:f>
+              <c:f>cofee!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1958,7 +1865,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1979,7 +1885,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:f>cofee!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2002,7 +1908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$11:$H$15</c:f>
+              <c:f>cofee!$H$11:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2035,7 +1941,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$25</c:f>
+              <c:f>cofee!$G$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2094,7 +2000,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2115,7 +2020,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$15</c:f>
+              <c:f>cofee!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2138,7 +2043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$27:$H$31</c:f>
+              <c:f>cofee!$H$27:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2297,7 +2202,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2404,7 +2308,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2446,7 +2349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$1</c:f>
+              <c:f>cifar!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2517,7 +2420,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2537,7 +2439,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$11:$A$15</c:f>
+              <c:f>cifar!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2560,7 +2462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$3:$B$7</c:f>
+              <c:f>cifar!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2593,7 +2495,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$G$1</c:f>
+              <c:f>cifar!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2664,7 +2566,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2684,7 +2585,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$11:$A$15</c:f>
+              <c:f>cifar!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2707,7 +2608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$H$3:$H$7</c:f>
+              <c:f>cifar!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2852,7 +2753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3001,7 +2901,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$9</c:f>
+              <c:f>cifar!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3092,7 +2992,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$11:$A$15</c:f>
+              <c:f>cifar!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3115,7 +3015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$11:$B$15</c:f>
+              <c:f>cifar!$B$11:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3148,7 +3048,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$G$9</c:f>
+              <c:f>cifar!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3239,7 +3139,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$11:$A$15</c:f>
+              <c:f>cifar!$A$11:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3262,7 +3162,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$H$11:$H$15</c:f>
+              <c:f>cifar!$H$11:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7271,1416 +7171,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>12.86</v>
-      </c>
-      <c r="C3">
-        <v>17.64</v>
-      </c>
-      <c r="D3">
-        <v>16.5</v>
-      </c>
-      <c r="E3">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>15.16</v>
-      </c>
-      <c r="C4">
-        <v>21.65</v>
-      </c>
-      <c r="D4">
-        <v>15.36</v>
-      </c>
-      <c r="E4">
-        <v>15.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>29.72</v>
-      </c>
-      <c r="C5">
-        <v>50.17</v>
-      </c>
-      <c r="D5">
-        <v>29.08</v>
-      </c>
-      <c r="E5">
-        <v>29.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>22.79</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>22.95</v>
-      </c>
-      <c r="E6">
-        <v>22.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>25.33</v>
-      </c>
-      <c r="C7">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="D7">
-        <v>23.07</v>
-      </c>
-      <c r="E7">
-        <v>22.68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>15.3</v>
-      </c>
-      <c r="C8">
-        <v>22.2</v>
-      </c>
-      <c r="D8">
-        <v>15.12</v>
-      </c>
-      <c r="E8">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>92.46</v>
-      </c>
-      <c r="D14" s="2">
-        <v>89.37</v>
-      </c>
-      <c r="E14" s="2">
-        <v>90.02</v>
-      </c>
-      <c r="F14" s="2">
-        <v>91.67</v>
-      </c>
-      <c r="G14" s="2">
-        <v>88.14</v>
-      </c>
-      <c r="H14" s="2">
-        <v>88.67</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="2">
-        <v>93.65</v>
-      </c>
-      <c r="M14" s="2">
-        <v>90.25</v>
-      </c>
-      <c r="N14" s="2">
-        <v>89.17</v>
-      </c>
-      <c r="O14" s="2">
-        <v>94.84</v>
-      </c>
-      <c r="P14" s="2">
-        <v>92.23</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>91.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>91.67</v>
-      </c>
-      <c r="D15" s="2">
-        <v>88.33</v>
-      </c>
-      <c r="E15" s="2">
-        <v>89.38</v>
-      </c>
-      <c r="F15" s="2">
-        <v>94.05</v>
-      </c>
-      <c r="G15" s="2">
-        <v>92.56</v>
-      </c>
-      <c r="H15" s="2">
-        <v>90.87</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="2">
-        <v>96.03</v>
-      </c>
-      <c r="M15" s="2">
-        <v>95.34</v>
-      </c>
-      <c r="N15" s="2">
-        <v>93.58</v>
-      </c>
-      <c r="O15" s="2">
-        <v>96.43</v>
-      </c>
-      <c r="P15" s="2">
-        <v>96.37</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>92.64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
-        <v>95.47</v>
-      </c>
-      <c r="D16" s="2">
-        <v>96.73</v>
-      </c>
-      <c r="E16" s="2">
-        <v>91.94</v>
-      </c>
-      <c r="F16" s="2">
-        <v>94.44</v>
-      </c>
-      <c r="G16" s="2">
-        <v>94.62</v>
-      </c>
-      <c r="H16" s="2">
-        <v>89.55</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="2">
-        <v>95.24</v>
-      </c>
-      <c r="M16" s="2">
-        <v>94.38</v>
-      </c>
-      <c r="N16" s="2">
-        <v>92.13</v>
-      </c>
-      <c r="O16" s="2">
-        <v>94.84</v>
-      </c>
-      <c r="P16" s="2">
-        <v>94.24</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>92.16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>95.63</v>
-      </c>
-      <c r="D17" s="2">
-        <v>94.12</v>
-      </c>
-      <c r="E17" s="2">
-        <v>92.7</v>
-      </c>
-      <c r="F17" s="2">
-        <v>95.24</v>
-      </c>
-      <c r="G17" s="2">
-        <v>95.29</v>
-      </c>
-      <c r="H17" s="2">
-        <v>91.14</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="2">
-        <v>95.24</v>
-      </c>
-      <c r="M17" s="2">
-        <v>95.35</v>
-      </c>
-      <c r="N17" s="2">
-        <v>90.69</v>
-      </c>
-      <c r="O17" s="2">
-        <v>94.44</v>
-      </c>
-      <c r="P17" s="2">
-        <v>93.47</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>88.94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>95.63</v>
-      </c>
-      <c r="D18" s="2">
-        <v>95.79</v>
-      </c>
-      <c r="E18" s="2">
-        <v>92.32</v>
-      </c>
-      <c r="F18" s="2">
-        <v>94.84</v>
-      </c>
-      <c r="G18" s="2">
-        <v>92.8</v>
-      </c>
-      <c r="H18" s="2">
-        <v>91.48</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="2">
-        <v>95.63</v>
-      </c>
-      <c r="M18" s="2">
-        <v>94.68</v>
-      </c>
-      <c r="N18" s="2">
-        <v>91.87</v>
-      </c>
-      <c r="O18" s="2">
-        <v>96.03</v>
-      </c>
-      <c r="P18" s="2">
-        <v>95.07</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>92.89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>94.84</v>
-      </c>
-      <c r="D19" s="2">
-        <v>93.24</v>
-      </c>
-      <c r="E19" s="2">
-        <v>91.79</v>
-      </c>
-      <c r="F19" s="2">
-        <v>94.44</v>
-      </c>
-      <c r="G19" s="2">
-        <v>92.77</v>
-      </c>
-      <c r="H19" s="2">
-        <v>90.84</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="2">
-        <v>95.24</v>
-      </c>
-      <c r="M19" s="2">
-        <v>93.3</v>
-      </c>
-      <c r="N19" s="2">
-        <v>92.2</v>
-      </c>
-      <c r="O19" s="2">
-        <v>95.24</v>
-      </c>
-      <c r="P19" s="2">
-        <v>94.5</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>92.36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>84.13</v>
-      </c>
-      <c r="D20" s="2">
-        <v>74.23</v>
-      </c>
-      <c r="E20" s="2">
-        <v>72.86</v>
-      </c>
-      <c r="F20" s="2">
-        <v>86.9</v>
-      </c>
-      <c r="G20" s="2">
-        <v>80.88</v>
-      </c>
-      <c r="H20" s="2">
-        <v>77.569999999999993</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2">
-        <v>85.32</v>
-      </c>
-      <c r="M20" s="2">
-        <v>82.81</v>
-      </c>
-      <c r="N20" s="2">
-        <v>72.5</v>
-      </c>
-      <c r="O20" s="2">
-        <v>87.3</v>
-      </c>
-      <c r="P20" s="2">
-        <v>81.7</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>76.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>82.94</v>
-      </c>
-      <c r="D21" s="2">
-        <v>74.27</v>
-      </c>
-      <c r="E21" s="2">
-        <v>73.760000000000005</v>
-      </c>
-      <c r="F21" s="2">
-        <v>82.94</v>
-      </c>
-      <c r="G21" s="2">
-        <v>75.39</v>
-      </c>
-      <c r="H21" s="2">
-        <v>73.760000000000005</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="2">
-        <v>86.9</v>
-      </c>
-      <c r="M21" s="2">
-        <v>78.53</v>
-      </c>
-      <c r="N21" s="2">
-        <v>80.59</v>
-      </c>
-      <c r="O21" s="2">
-        <v>85.32</v>
-      </c>
-      <c r="P21" s="2">
-        <v>77.53</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>77.709999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2">
-        <v>86.51</v>
-      </c>
-      <c r="D22" s="2">
-        <v>82.49</v>
-      </c>
-      <c r="E22" s="2">
-        <v>80.89</v>
-      </c>
-      <c r="F22" s="2">
-        <v>86.51</v>
-      </c>
-      <c r="G22" s="2">
-        <v>79.5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>76.31</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="2">
-        <v>87.7</v>
-      </c>
-      <c r="M22" s="2">
-        <v>82.16</v>
-      </c>
-      <c r="N22" s="2">
-        <v>81.95</v>
-      </c>
-      <c r="O22" s="2">
-        <v>88.49</v>
-      </c>
-      <c r="P22" s="2">
-        <v>85.08</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>82.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2">
-        <v>84.13</v>
-      </c>
-      <c r="D23" s="2">
-        <v>81.66</v>
-      </c>
-      <c r="E23" s="2">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="F23" s="2">
-        <v>86.51</v>
-      </c>
-      <c r="G23" s="2">
-        <v>82.38</v>
-      </c>
-      <c r="H23" s="2">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="2">
-        <v>85.71</v>
-      </c>
-      <c r="M23" s="2">
-        <v>78.95</v>
-      </c>
-      <c r="N23" s="2">
-        <v>77.77</v>
-      </c>
-      <c r="O23" s="2">
-        <v>83.73</v>
-      </c>
-      <c r="P23" s="2">
-        <v>74.959999999999994</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>75.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2">
-        <v>78.569999999999993</v>
-      </c>
-      <c r="D24" s="2">
-        <v>69.33</v>
-      </c>
-      <c r="E24" s="2">
-        <v>67.42</v>
-      </c>
-      <c r="F24" s="2">
-        <v>80.95</v>
-      </c>
-      <c r="G24" s="2">
-        <v>78.17</v>
-      </c>
-      <c r="H24" s="2">
-        <v>68.97</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="2">
-        <v>82.94</v>
-      </c>
-      <c r="M24" s="2">
-        <v>75.040000000000006</v>
-      </c>
-      <c r="N24" s="2">
-        <v>75.62</v>
-      </c>
-      <c r="O24" s="2">
-        <v>80.56</v>
-      </c>
-      <c r="P24" s="2">
-        <v>78.260000000000005</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2">
-        <v>84.52</v>
-      </c>
-      <c r="D25" s="2">
-        <v>73.290000000000006</v>
-      </c>
-      <c r="E25" s="2">
-        <v>77.36</v>
-      </c>
-      <c r="F25" s="2">
-        <v>84.13</v>
-      </c>
-      <c r="G25" s="2">
-        <v>77.150000000000006</v>
-      </c>
-      <c r="H25" s="2">
-        <v>79.53</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="2">
-        <v>83.33</v>
-      </c>
-      <c r="M25" s="2">
-        <v>73.87</v>
-      </c>
-      <c r="N25" s="2">
-        <v>79.56</v>
-      </c>
-      <c r="O25" s="2">
-        <v>86.51</v>
-      </c>
-      <c r="P25" s="2">
-        <v>83.51</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>81.430000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="J29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="O29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" ref="C31:C36" si="0">ABS((C14-L14))</f>
-        <v>1.1900000000000119</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" ref="D31:D37" si="1">ABS((D14-M14))</f>
-        <v>0.87999999999999545</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" ref="E31:E37" si="2">ABS((E14-N14))</f>
-        <v>0.84999999999999432</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" ref="F31:H31" si="3">ABS((F14-O14))</f>
-        <v>3.1700000000000017</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="3"/>
-        <v>4.0900000000000034</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7399999999999949</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="2">
-        <v>87.78</v>
-      </c>
-      <c r="L31" s="2">
-        <v>89.01</v>
-      </c>
-      <c r="M31" s="2">
-        <v>84.61</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="2">
-        <v>96.58</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>96.12</v>
-      </c>
-      <c r="R31" s="2">
-        <v>96.59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3599999999999994</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>7.0100000000000051</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="2"/>
-        <v>4.2000000000000028</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" ref="F32:F42" si="4">ABS((F15-O15))</f>
-        <v>2.3800000000000097</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" ref="G32:G42" si="5">ABS((G15-P15))</f>
-        <v>3.8100000000000023</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" ref="H32:H42" si="6">ABS((H15-Q15))</f>
-        <v>1.769999999999996</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="2">
-        <v>94.62</v>
-      </c>
-      <c r="L32" s="2">
-        <v>93.99</v>
-      </c>
-      <c r="M32" s="2">
-        <v>93.65</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P32" s="2">
-        <v>96.82</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>96.56</v>
-      </c>
-      <c r="R32" s="2">
-        <v>96.64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="0"/>
-        <v>0.23000000000000398</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3500000000000085</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18999999999999773</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="4"/>
-        <v>0.40000000000000568</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="5"/>
-        <v>0.38000000000000966</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="6"/>
-        <v>2.6099999999999994</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="2">
-        <v>95.84</v>
-      </c>
-      <c r="L33" s="2">
-        <v>95.29</v>
-      </c>
-      <c r="M33" s="2">
-        <v>95.36</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="2">
-        <v>95.6</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>95.02</v>
-      </c>
-      <c r="R33" s="2">
-        <v>95.31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39000000000000057</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2299999999999898</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="2"/>
-        <v>2.0100000000000051</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" ref="F34:H35" si="7">ABS((F17-O18))</f>
-        <v>0.79000000000000625</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="7"/>
-        <v>0.22000000000001307</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="7"/>
-        <v>1.75</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="2">
-        <v>95.84</v>
-      </c>
-      <c r="L34" s="2">
-        <v>95.98</v>
-      </c>
-      <c r="M34" s="2">
-        <v>94.93</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" s="2">
-        <v>97.07</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>96.85</v>
-      </c>
-      <c r="R34" s="2">
-        <v>96.69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1099999999999994</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="2"/>
-        <v>0.44999999999998863</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="7"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="7"/>
-        <v>1.7000000000000028</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="7"/>
-        <v>0.87999999999999545</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="2">
-        <v>96.33</v>
-      </c>
-      <c r="L35" s="2">
-        <v>95.9</v>
-      </c>
-      <c r="M35" s="2">
-        <v>96.41</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="2">
-        <v>97.07</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>96.85</v>
-      </c>
-      <c r="R35" s="2">
-        <v>96.99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>6.0000000000002274E-2</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40999999999999659</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="4"/>
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="5"/>
-        <v>1.730000000000004</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="6"/>
-        <v>1.519999999999996</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="2">
-        <v>95.84</v>
-      </c>
-      <c r="L36" s="2">
-        <v>95.43</v>
-      </c>
-      <c r="M36" s="2">
-        <v>95.15</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P36" s="2">
-        <v>96.33</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>95.65</v>
-      </c>
-      <c r="R36" s="2">
-        <v>96.41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2">
-        <f>ABS((C20-L20))</f>
-        <v>1.1899999999999977</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="1"/>
-        <v>8.5799999999999983</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="2"/>
-        <v>0.35999999999999943</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="4"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="5"/>
-        <v>0.82000000000000739</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5499999999999972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" ref="C38:C42" si="8">ABS((C21-L21))</f>
-        <v>3.960000000000008</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" ref="D38:D42" si="9">ABS((D21-M21))</f>
-        <v>4.2600000000000051</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" ref="E38:E42" si="10">ABS((E21-N21))</f>
-        <v>6.8299999999999983</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3799999999999955</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="5"/>
-        <v>2.1400000000000006</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="6"/>
-        <v>3.9499999999999886</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="8"/>
-        <v>1.1899999999999977</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="9"/>
-        <v>0.32999999999999829</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0600000000000023</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9799999999999898</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="5"/>
-        <v>5.5799999999999983</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="6"/>
-        <v>6.3599999999999994</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5799999999999983</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="9"/>
-        <v>2.7099999999999937</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="10"/>
-        <v>1.1300000000000097</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="4"/>
-        <v>2.7800000000000011</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="5"/>
-        <v>7.4200000000000017</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="6"/>
-        <v>5.2000000000000028</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" si="8"/>
-        <v>4.3700000000000045</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="9"/>
-        <v>5.710000000000008</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="10"/>
-        <v>8.2000000000000028</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="4"/>
-        <v>0.39000000000000057</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="5"/>
-        <v>9.0000000000003411E-2</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="6"/>
-        <v>3.0000000000001137E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2">
-        <f t="shared" si="8"/>
-        <v>1.1899999999999977</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="9"/>
-        <v>0.57999999999999829</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="10"/>
-        <v>2.2000000000000028</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3800000000000097</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="5"/>
-        <v>6.3599999999999994</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="6"/>
-        <v>1.9000000000000057</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:H12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -8695,117 +7185,117 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>95.63</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>94.12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>92.7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H3">
         <v>95.24</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>95.16</v>
       </c>
       <c r="J3">
         <v>90.24</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>91.83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
         <v>95.47</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>96.73</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>91.94</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="H4">
         <v>96.03</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>94.31</v>
       </c>
       <c r="J4">
         <v>94.46</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>94.18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>94.84</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>93.24</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>91.79</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5">
         <v>95.63</v>
@@ -8816,639 +7306,639 @@
       <c r="J5">
         <v>95.73</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>91.8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
         <v>92.46</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>89.37</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>90.02</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H6">
         <v>95.24</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>92.52</v>
       </c>
       <c r="J6">
         <v>92.87</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>92.21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
         <v>91.67</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>88.33</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>89.38</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>92.46</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>89.68</v>
       </c>
       <c r="J7">
         <v>89.74</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>90.02</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
         <v>86.51</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>82.49</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>80.89</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
         <v>87.3</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>83.97</v>
       </c>
       <c r="J11">
         <v>82.93</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>85.51</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
         <v>84.52</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>73.290000000000006</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>77.36</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H12">
         <v>86.11</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>82.62</v>
       </c>
       <c r="J12">
         <v>83.53</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <v>83.18</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
         <v>84.13</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>74.23</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>72.86</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
         <v>86.9</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>81.760000000000005</v>
       </c>
       <c r="J13">
         <v>81.89</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <v>82.33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
         <v>84.13</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>81.66</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>78.900000000000006</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H14">
         <v>86.51</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>81.41</v>
       </c>
       <c r="J14">
         <v>83.49</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>80.23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
         <v>82.94</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>74.27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>73.760000000000005</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
         <v>87.3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>79.11</v>
       </c>
       <c r="J15">
         <v>78.959999999999994</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>79.27</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>28</v>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
         <v>95.24</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>95.29</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>91.14</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>7</v>
+      <c r="G19" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H19">
         <v>96.03</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>93.81</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>95.26</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <v>92.75</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
         <v>94.44</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>94.62</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>89.55</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H20">
         <v>94.84</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>92.59</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>93.59</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <v>91.8</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
         <v>94.44</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>92.77</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>90.84</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H21">
         <v>94.44</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>92.21</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>92.41</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>92.12</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
         <v>94.05</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>92.56</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>90.87</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="H22">
         <v>94.44</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>91.76</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>91.94</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <v>91.66</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
         <v>91.67</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>88.14</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>88.67</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H23">
         <v>93.25</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>89.93</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>89.9</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <v>90.1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>37</v>
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5" t="s">
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>28</v>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
         <v>86.9</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>80.88</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>77.569999999999993</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>7</v>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H27">
         <v>88.1</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>81.42</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>82.24</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="2">
         <v>81.05</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
         <v>86.51</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>79.5</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>76.31</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>9</v>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H28">
         <v>86.9</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>80.97</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <v>81.5</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="2">
         <v>80.819999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
         <v>86.51</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>82.38</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>80.900000000000006</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="H29">
         <v>87.3</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>80.569999999999993</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>80.41</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <v>81.239999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
         <v>84.13</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
         <v>77.150000000000006</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>79.53</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
-        <v>5</v>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H30">
         <v>88.1</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>79.33</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="2">
         <v>81.41</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="2">
         <v>77.900000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
         <v>82.94</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
         <v>75.39</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>73.760000000000005</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
-        <v>6</v>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H31">
         <v>82.94</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="2">
         <v>72.75</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>71.34</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="2">
         <v>76.430000000000007</v>
       </c>
     </row>
@@ -9460,11 +7950,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -9477,70 +7967,70 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>55.89</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>55.9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>55.76</v>
       </c>
       <c r="E3">
         <v>55.37</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
         <v>54.57</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>54.75</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>54.41</v>
       </c>
       <c r="K3">
@@ -9548,31 +8038,31 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>69.14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>69.16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>69.03</v>
       </c>
       <c r="E4">
         <v>68.81</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
         <v>68.44</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>68.39</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>68.319999999999993</v>
       </c>
       <c r="K4">
@@ -9580,31 +8070,31 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>74.400000000000006</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>74.489999999999995</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>74.37</v>
       </c>
       <c r="E5">
         <v>74.290000000000006</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
         <v>73.760000000000005</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>74.23</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>73.64</v>
       </c>
       <c r="K5">
@@ -9612,31 +8102,31 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
         <v>72.88</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>72.790000000000006</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>72.72</v>
       </c>
       <c r="E6">
         <v>72.53</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
         <v>72.900000000000006</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>72.97</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>72.790000000000006</v>
       </c>
       <c r="K6">
@@ -9644,31 +8134,31 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
         <v>68.989999999999995</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>68.84</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>68.84</v>
       </c>
       <c r="E7">
         <v>68.58</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
         <v>67.510000000000005</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>67.62</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>67.459999999999994</v>
       </c>
       <c r="K7">
@@ -9677,70 +8167,70 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
         <v>66</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>66.27</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>66.040000000000006</v>
       </c>
       <c r="E11">
         <v>66.040000000000006</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
         <v>68.67</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>68.89</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>68.69</v>
       </c>
       <c r="K11">
@@ -9748,31 +8238,31 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
         <v>78.97</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>78.94</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>79</v>
       </c>
       <c r="E12">
         <v>78.88</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
         <v>80.63</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>80.680000000000007</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>80.680000000000007</v>
       </c>
       <c r="K12">
@@ -9780,31 +8270,31 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
         <v>83.82</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>83.88</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>83.85</v>
       </c>
       <c r="E13">
         <v>83.82</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
         <v>85</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>85.08</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>85</v>
       </c>
       <c r="K13">
@@ -9812,31 +8302,31 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
         <v>81.13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>81.209999999999994</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>81.180000000000007</v>
       </c>
       <c r="E14">
         <v>81.11</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
         <v>83.5</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>83.5</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>83.52</v>
       </c>
       <c r="K14">
@@ -9844,31 +8334,31 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
         <v>76.569999999999993</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>76.569999999999993</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>76.58</v>
       </c>
       <c r="E15">
         <v>76.48</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
         <v>79.98</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>80.05</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>80</v>
       </c>
       <c r="K15">
@@ -9876,93 +8366,93 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:E7">
@@ -9972,7 +8462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9987,11 +8477,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>

--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cofee" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="cifar" sheetId="3" r:id="rId3"/>
-    <sheet name="plot_coffee" sheetId="4" r:id="rId4"/>
-    <sheet name="plot_cifar" sheetId="5" r:id="rId5"/>
+    <sheet name="innov" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="cifar" sheetId="3" r:id="rId4"/>
+    <sheet name="plot_coffee" sheetId="4" r:id="rId5"/>
+    <sheet name="plot_cifar" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -113,6 +114,27 @@
   </si>
   <si>
     <t>fs(multi)</t>
+  </si>
+  <si>
+    <t>Ensemble Resnet-VGG16-Alex</t>
+  </si>
+  <si>
+    <t>Ensemble Resnet-VGG16-GoogleNet</t>
+  </si>
+  <si>
+    <t>Ensemble Resnet-VGG16-MobileNet</t>
+  </si>
+  <si>
+    <t>Multitask Disease</t>
+  </si>
+  <si>
+    <t>Ensemble Resnet-VGG16-Alex*</t>
+  </si>
+  <si>
+    <t>Ensemble Resnet-VGG16-GoogleNet*</t>
+  </si>
+  <si>
+    <t>Ensemble Resnet-VGG16-MobileNet*</t>
   </si>
 </sst>
 </file>
@@ -216,7 +238,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -280,7 +301,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -350,7 +370,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -398,7 +417,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -533,7 +551,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -708,7 +725,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -815,7 +831,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -918,7 +933,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1019,7 +1033,39 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{85C5F0C5-85B7-488E-85B1-63C9F98886B0}" type="VALUE">
+                      <a:rPr lang="en-US" b="1"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3FB8-43D5-8239-0405F50A730C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1043,42 +1089,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-3FB8-43D5-8239-0405F50A730C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{85C5F0C5-85B7-488E-85B1-63C9F98886B0}" type="VALUE">
-                      <a:rPr lang="en-US" b="1"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -1126,7 +1136,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1155,16 +1164,16 @@
                   <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.94</c:v>
+                  <c:v>86.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.9</c:v>
+                  <c:v>87.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.3</c:v>
+                  <c:v>82.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,7 +1211,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1226,7 +1234,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -1274,7 +1281,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1387,7 +1393,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1413,19 +1418,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>81.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>79.33</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>72.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.569999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,7 +1488,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1623,7 +1627,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1730,7 +1733,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1843,7 +1845,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1990,7 +1991,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2178,7 +2178,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2285,7 +2284,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2398,7 +2396,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2545,7 +2542,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2733,7 +2729,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2840,7 +2835,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2904,7 +2898,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2928,7 +2921,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2976,7 +2968,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3075,7 +3066,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3099,7 +3089,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3110,7 +3099,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3134,7 +3122,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3182,7 +3169,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3258,7 +3244,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3282,7 +3267,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3330,7 +3314,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3445,7 +3428,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3541,7 +3523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3681,7 +3662,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3788,7 +3768,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,7 +3868,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3988,7 +3966,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4012,7 +3989,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4060,7 +4036,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4173,7 +4148,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4251,7 +4225,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4275,7 +4248,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4323,7 +4295,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4419,7 +4390,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4559,7 +4529,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4666,7 +4635,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4767,7 +4735,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4902,7 +4869,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5077,7 +5043,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5184,7 +5149,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5285,7 +5249,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5421,7 +5384,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5470,7 +5432,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>93.25</c:v>
+                  <c:v>96.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>94.84</c:v>
@@ -5479,10 +5441,10 @@
                   <c:v>94.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.03</c:v>
+                  <c:v>94.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.44</c:v>
+                  <c:v>93.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5540,7 +5502,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5661,7 +5622,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5736,7 +5696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5843,7 +5802,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5944,7 +5902,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6080,7 +6037,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6132,16 +6088,16 @@
                   <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.94</c:v>
+                  <c:v>86.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.9</c:v>
+                  <c:v>87.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.3</c:v>
+                  <c:v>82.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6199,7 +6155,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6320,7 +6275,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6395,7 +6349,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6502,7 +6455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6603,7 +6555,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6739,7 +6690,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6788,7 +6738,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>89.93</c:v>
+                  <c:v>93.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>92.59</c:v>
@@ -6797,10 +6747,10 @@
                   <c:v>92.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.81</c:v>
+                  <c:v>91.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.76</c:v>
+                  <c:v>89.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6858,7 +6808,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6979,7 +6928,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7054,7 +7002,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7161,7 +7108,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7262,7 +7208,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7398,7 +7343,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7447,19 +7391,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>81.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>79.33</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>72.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.569999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7517,7 +7461,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7638,7 +7581,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7713,7 +7655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7820,7 +7761,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7886,7 +7826,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -7910,7 +7849,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -7958,7 +7896,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8094,7 +8031,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8172,7 +8108,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8196,7 +8131,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8244,7 +8178,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8382,7 +8315,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8458,7 +8390,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8482,7 +8413,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8530,7 +8460,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8666,7 +8595,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8761,7 +8689,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8887,7 +8814,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8994,7 +8920,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9097,7 +9022,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9196,7 +9120,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9220,7 +9143,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -9268,7 +9190,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9346,7 +9267,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9370,7 +9290,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -9418,7 +9337,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9556,7 +9474,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9632,7 +9549,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9656,7 +9572,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -9704,7 +9619,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9840,7 +9754,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9936,7 +9849,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10062,7 +9974,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10169,7 +10080,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10235,7 +10145,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -10259,7 +10168,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -10307,7 +10215,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10407,8 +10314,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
+              <c:idx val="0"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -10432,12 +10338,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-32B8-4B68-A41A-20D1D37DBAD1}"/>
+                  <c16:uniqueId val="{00000000-1E46-4168-9595-9FBA7985E05A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10480,7 +10385,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10506,7 +10410,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>93.25</c:v>
+                  <c:v>96.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>94.84</c:v>
@@ -10515,10 +10419,10 @@
                   <c:v>94.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.03</c:v>
+                  <c:v>94.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.44</c:v>
+                  <c:v>93.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10556,7 +10460,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -10580,7 +10483,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -10628,7 +10530,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10741,7 +10642,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10767,7 +10667,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>89.93</c:v>
+                  <c:v>93.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>92.59</c:v>
@@ -10776,10 +10676,10 @@
                   <c:v>92.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.81</c:v>
+                  <c:v>91.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.76</c:v>
+                  <c:v>89.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10837,7 +10737,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10977,7 +10876,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19239,8 +19137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19671,19 +19569,19 @@
         <v>88.67</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>93.25</v>
+        <v>96.03</v>
       </c>
       <c r="H19" s="2">
-        <v>89.93</v>
+        <v>93.81</v>
       </c>
       <c r="I19" s="2">
-        <v>89.9</v>
+        <v>95.26</v>
       </c>
       <c r="J19" s="2">
-        <v>90.1</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -19758,19 +19656,19 @@
         <v>91.14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>96.03</v>
+        <v>94.44</v>
       </c>
       <c r="H22" s="2">
-        <v>93.81</v>
+        <v>91.76</v>
       </c>
       <c r="I22" s="2">
-        <v>95.26</v>
+        <v>91.94</v>
       </c>
       <c r="J22" s="2">
-        <v>92.75</v>
+        <v>91.66</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -19787,19 +19685,19 @@
         <v>89.55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>94.44</v>
+        <v>93.25</v>
       </c>
       <c r="H23" s="2">
-        <v>91.76</v>
+        <v>89.93</v>
       </c>
       <c r="I23" s="2">
-        <v>91.94</v>
+        <v>89.9</v>
       </c>
       <c r="J23" s="2">
-        <v>91.66</v>
+        <v>90.1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -19855,19 +19753,19 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>88.1</v>
       </c>
       <c r="H27" s="2">
-        <v>79.33</v>
+        <v>81.42</v>
       </c>
       <c r="I27" s="2">
-        <v>81.41</v>
+        <v>82.24</v>
       </c>
       <c r="J27" s="2">
-        <v>77.900000000000006</v>
+        <v>81.05</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -19885,19 +19783,19 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>82.94</v>
+        <v>86.9</v>
       </c>
       <c r="H28" s="2">
-        <v>72.75</v>
+        <v>80.97</v>
       </c>
       <c r="I28" s="2">
-        <v>71.34</v>
+        <v>81.5</v>
       </c>
       <c r="J28" s="2">
-        <v>76.430000000000007</v>
+        <v>80.819999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -19915,19 +19813,19 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>86.9</v>
+        <v>87.3</v>
       </c>
       <c r="H29" s="2">
-        <v>80.97</v>
+        <v>80.569999999999993</v>
       </c>
       <c r="I29" s="2">
-        <v>81.5</v>
+        <v>80.41</v>
       </c>
       <c r="J29" s="2">
-        <v>80.819999999999993</v>
+        <v>81.239999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -19945,19 +19843,19 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>88.1</v>
       </c>
       <c r="H30" s="2">
-        <v>81.42</v>
+        <v>79.33</v>
       </c>
       <c r="I30" s="2">
-        <v>82.24</v>
+        <v>81.41</v>
       </c>
       <c r="J30" s="2">
-        <v>81.05</v>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -19975,24 +19873,24 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>87.3</v>
+        <v>82.94</v>
       </c>
       <c r="H31" s="2">
-        <v>80.569999999999993</v>
+        <v>72.75</v>
       </c>
       <c r="I31" s="2">
-        <v>80.41</v>
+        <v>71.34</v>
       </c>
       <c r="J31" s="2">
-        <v>81.239999999999995</v>
+        <v>76.430000000000007</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="F27:J31">
-    <sortCondition ref="F27:F31"/>
+    <sortCondition descending="1" ref="H27:H31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20000,6 +19898,420 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E13" sqref="A3:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>93.25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>89.93</v>
+      </c>
+      <c r="D3" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>90.1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>88.1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>79.33</v>
+      </c>
+      <c r="J3" s="2">
+        <v>81.41</v>
+      </c>
+      <c r="K3" s="2">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>94.84</v>
+      </c>
+      <c r="C4" s="2">
+        <v>92.59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>93.59</v>
+      </c>
+      <c r="E4" s="2">
+        <v>91.8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>82.94</v>
+      </c>
+      <c r="I4" s="2">
+        <v>72.75</v>
+      </c>
+      <c r="J4" s="2">
+        <v>71.34</v>
+      </c>
+      <c r="K4" s="2">
+        <v>76.430000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>94.44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>92.21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>92.41</v>
+      </c>
+      <c r="E5" s="2">
+        <v>92.12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>86.9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>80.97</v>
+      </c>
+      <c r="J5" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>80.819999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>96.03</v>
+      </c>
+      <c r="C6" s="2">
+        <v>93.81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>95.26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>92.75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>88.1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>81.42</v>
+      </c>
+      <c r="J6" s="2">
+        <v>82.24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>81.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>94.44</v>
+      </c>
+      <c r="C7" s="2">
+        <v>91.76</v>
+      </c>
+      <c r="D7" s="2">
+        <v>91.94</v>
+      </c>
+      <c r="E7" s="2">
+        <v>91.66</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>87.3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>80.569999999999993</v>
+      </c>
+      <c r="J7" s="2">
+        <v>80.41</v>
+      </c>
+      <c r="K7" s="2">
+        <v>81.239999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>96.43</v>
+      </c>
+      <c r="C8">
+        <v>94.03</v>
+      </c>
+      <c r="D8">
+        <v>94.87</v>
+      </c>
+      <c r="E8">
+        <v>93.39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>89.68</v>
+      </c>
+      <c r="I8">
+        <v>83.54</v>
+      </c>
+      <c r="J8">
+        <v>85.45</v>
+      </c>
+      <c r="K8">
+        <v>82.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>96.43</v>
+      </c>
+      <c r="C9">
+        <v>94.19</v>
+      </c>
+      <c r="D9">
+        <v>95.59</v>
+      </c>
+      <c r="E9">
+        <v>93.17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>88.1</v>
+      </c>
+      <c r="I9">
+        <v>80.77</v>
+      </c>
+      <c r="J9">
+        <v>81.13</v>
+      </c>
+      <c r="K9">
+        <v>80.760000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>96.83</v>
+      </c>
+      <c r="C10">
+        <v>94.94</v>
+      </c>
+      <c r="D10">
+        <v>95.97</v>
+      </c>
+      <c r="E10">
+        <v>94.12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>88.89</v>
+      </c>
+      <c r="I10">
+        <v>85.81</v>
+      </c>
+      <c r="J10">
+        <v>86.63</v>
+      </c>
+      <c r="K10">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>95.63</v>
+      </c>
+      <c r="C11">
+        <v>93.31</v>
+      </c>
+      <c r="D11">
+        <v>94.3</v>
+      </c>
+      <c r="E11">
+        <v>92.55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>89.68</v>
+      </c>
+      <c r="I11">
+        <v>83.39</v>
+      </c>
+      <c r="J11">
+        <v>87.52</v>
+      </c>
+      <c r="K11">
+        <v>82.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>96.83</v>
+      </c>
+      <c r="C12">
+        <v>94.75</v>
+      </c>
+      <c r="D12">
+        <v>96.71</v>
+      </c>
+      <c r="E12">
+        <v>93.44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>87.3</v>
+      </c>
+      <c r="I12">
+        <v>79.34</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>96.43</v>
+      </c>
+      <c r="C13">
+        <v>94.6</v>
+      </c>
+      <c r="D13">
+        <v>95.64</v>
+      </c>
+      <c r="E13">
+        <v>93.77</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>88.1</v>
+      </c>
+      <c r="I13">
+        <v>82.12</v>
+      </c>
+      <c r="J13">
+        <v>82.62</v>
+      </c>
+      <c r="K13">
+        <v>82.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -20157,7 +20469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -20670,7 +20982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20685,11 +20997,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>

--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>Ensemble Resnet-VGG16-MobileNet*</t>
+  </si>
+  <si>
+    <t>CLAHE-RESNET</t>
+  </si>
+  <si>
+    <t>CLAHE-VGG</t>
+  </si>
+  <si>
+    <t>CLAHE-MOBILE</t>
+  </si>
+  <si>
+    <t>CLAHE-ENSEMBLE</t>
+  </si>
+  <si>
+    <t>CLAHE-ENSEMBLE*</t>
   </si>
 </sst>
 </file>
@@ -19899,10 +19914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E13" sqref="A3:E13"/>
+      <selection activeCell="A3" sqref="A3:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20304,6 +20319,166 @@
       </c>
       <c r="K13">
         <v>82.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>94.84</v>
+      </c>
+      <c r="C14">
+        <v>91.24</v>
+      </c>
+      <c r="D14">
+        <v>93.8</v>
+      </c>
+      <c r="E14">
+        <v>89.89</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>85.32</v>
+      </c>
+      <c r="I14">
+        <v>82.28</v>
+      </c>
+      <c r="J14">
+        <v>80.8</v>
+      </c>
+      <c r="K14">
+        <v>84.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>95.24</v>
+      </c>
+      <c r="C15">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>93.92</v>
+      </c>
+      <c r="E15">
+        <v>92.27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>85.71</v>
+      </c>
+      <c r="I15">
+        <v>78.44</v>
+      </c>
+      <c r="J15">
+        <v>77.83</v>
+      </c>
+      <c r="K15">
+        <v>79.319999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>90.48</v>
+      </c>
+      <c r="C16">
+        <v>87.15</v>
+      </c>
+      <c r="D16">
+        <v>91.86</v>
+      </c>
+      <c r="E16">
+        <v>85.49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>86.11</v>
+      </c>
+      <c r="I16">
+        <v>80.19</v>
+      </c>
+      <c r="J16">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="K16">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>95.63</v>
+      </c>
+      <c r="C17">
+        <v>92.83</v>
+      </c>
+      <c r="D17">
+        <v>94.18</v>
+      </c>
+      <c r="E17">
+        <v>91.87</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>88.1</v>
+      </c>
+      <c r="I17">
+        <v>82.94</v>
+      </c>
+      <c r="J17">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="K17">
+        <v>84.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>94.44</v>
+      </c>
+      <c r="C18">
+        <v>90.94</v>
+      </c>
+      <c r="D18">
+        <v>93.56</v>
+      </c>
+      <c r="E18">
+        <v>89.55</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>86.51</v>
+      </c>
+      <c r="I18">
+        <v>81.63</v>
+      </c>
+      <c r="J18">
+        <v>80.88</v>
+      </c>
+      <c r="K18">
+        <v>82.71</v>
       </c>
     </row>
   </sheetData>

--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -4,16 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cofee" sheetId="2" r:id="rId1"/>
     <sheet name="innov" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="cifar" sheetId="3" r:id="rId4"/>
-    <sheet name="plot_coffee" sheetId="4" r:id="rId5"/>
-    <sheet name="plot_cifar" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId4"/>
+    <sheet name="sorted" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="cifar" sheetId="3" r:id="rId8"/>
+    <sheet name="plot_coffee" sheetId="4" r:id="rId9"/>
+    <sheet name="plot_cifar" sheetId="5" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">innov!$G$2:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$18:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$G$13:$K$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">sorted!$G$2:$K$19</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">Sheet3!$E$3:$E$15</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Sheet4!$E$2:$E$8</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$A$17:$E$37</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">Sheet4!$A$13:$E$23</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="72">
   <si>
     <t>Model</t>
   </si>
@@ -137,26 +151,116 @@
     <t>Ensemble Resnet-VGG16-MobileNet*</t>
   </si>
   <si>
-    <t>CLAHE-RESNET</t>
+    <t>weight</t>
   </si>
   <si>
-    <t>CLAHE-VGG</t>
+    <t>resnet</t>
   </si>
   <si>
-    <t>CLAHE-MOBILE</t>
+    <t>vgg</t>
   </si>
   <si>
-    <t>CLAHE-ENSEMBLE</t>
+    <t>mobile</t>
   </si>
   <si>
-    <t>CLAHE-ENSEMBLE*</t>
+    <t>weight-2</t>
+  </si>
+  <si>
+    <t>Ensemble Precision Cubic</t>
+  </si>
+  <si>
+    <t>Resnet Augmentation</t>
+  </si>
+  <si>
+    <t>VGG Augmentation</t>
+  </si>
+  <si>
+    <t>MobileNetV2 Augmentation</t>
+  </si>
+  <si>
+    <t>Ensemble Augmentation</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>Ensemble Augmentation Precision Cubic</t>
+  </si>
+  <si>
+    <t>sev</t>
+  </si>
+  <si>
+    <t>Ensemble Augmentation Rangking</t>
+  </si>
+  <si>
+    <t>Ensemble Ranking</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Ensemble p3</t>
+  </si>
+  <si>
+    <t>Ensemble Hard</t>
+  </si>
+  <si>
+    <t>Ensemble Augmentation Hard</t>
+  </si>
+  <si>
+    <t>Resnet Bagging</t>
+  </si>
+  <si>
+    <t>VGG16 Bagging</t>
+  </si>
+  <si>
+    <t>MobilenetV2 Bagging</t>
+  </si>
+  <si>
+    <t>MobileNetV2 Bagging</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Bagging 9 classifier</t>
+  </si>
+  <si>
+    <t>Bagging 9 Classifier</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>No Augmentation</t>
+  </si>
+  <si>
+    <t>Augmentation Wongbong</t>
+  </si>
+  <si>
+    <t>Proposed Bagging</t>
+  </si>
+  <si>
+    <t>VGG</t>
+  </si>
+  <si>
+    <t>MobileNet</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Bagging-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +268,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +327,39 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19912,18 +20076,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -19945,13 +20124,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -19960,13 +20139,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -19977,13 +20156,13 @@
         <v>93.25</v>
       </c>
       <c r="C3" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>90.1</v>
+      </c>
+      <c r="E3" s="2">
         <v>89.93</v>
-      </c>
-      <c r="D3" s="2">
-        <v>89.9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>90.1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
@@ -19992,13 +20171,13 @@
         <v>88.1</v>
       </c>
       <c r="I3" s="2">
+        <v>81.41</v>
+      </c>
+      <c r="J3" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K3" s="2">
         <v>79.33</v>
-      </c>
-      <c r="J3" s="2">
-        <v>81.41</v>
-      </c>
-      <c r="K3" s="2">
-        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -20009,13 +20188,13 @@
         <v>94.84</v>
       </c>
       <c r="C4" s="2">
+        <v>93.59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>91.8</v>
+      </c>
+      <c r="E4" s="2">
         <v>92.59</v>
-      </c>
-      <c r="D4" s="2">
-        <v>93.59</v>
-      </c>
-      <c r="E4" s="2">
-        <v>91.8</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>2</v>
@@ -20024,13 +20203,13 @@
         <v>82.94</v>
       </c>
       <c r="I4" s="2">
+        <v>71.34</v>
+      </c>
+      <c r="J4" s="2">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="K4" s="2">
         <v>72.75</v>
-      </c>
-      <c r="J4" s="2">
-        <v>71.34</v>
-      </c>
-      <c r="K4" s="2">
-        <v>76.430000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -20041,13 +20220,13 @@
         <v>94.44</v>
       </c>
       <c r="C5" s="2">
+        <v>92.41</v>
+      </c>
+      <c r="D5" s="2">
+        <v>92.12</v>
+      </c>
+      <c r="E5" s="2">
         <v>92.21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>92.41</v>
-      </c>
-      <c r="E5" s="2">
-        <v>92.12</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
@@ -20056,13 +20235,13 @@
         <v>86.9</v>
       </c>
       <c r="I5" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="K5" s="2">
         <v>80.97</v>
-      </c>
-      <c r="J5" s="2">
-        <v>81.5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>80.819999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -20073,13 +20252,13 @@
         <v>96.03</v>
       </c>
       <c r="C6" s="2">
+        <v>95.26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>92.75</v>
+      </c>
+      <c r="E6" s="2">
         <v>93.81</v>
-      </c>
-      <c r="D6" s="2">
-        <v>95.26</v>
-      </c>
-      <c r="E6" s="2">
-        <v>92.75</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -20088,13 +20267,13 @@
         <v>88.1</v>
       </c>
       <c r="I6" s="2">
+        <v>82.24</v>
+      </c>
+      <c r="J6" s="2">
+        <v>81.05</v>
+      </c>
+      <c r="K6" s="2">
         <v>81.42</v>
-      </c>
-      <c r="J6" s="2">
-        <v>82.24</v>
-      </c>
-      <c r="K6" s="2">
-        <v>81.05</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -20105,13 +20284,13 @@
         <v>94.44</v>
       </c>
       <c r="C7" s="2">
+        <v>91.94</v>
+      </c>
+      <c r="D7" s="2">
+        <v>91.66</v>
+      </c>
+      <c r="E7" s="2">
         <v>91.76</v>
-      </c>
-      <c r="D7" s="2">
-        <v>91.94</v>
-      </c>
-      <c r="E7" s="2">
-        <v>91.66</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>5</v>
@@ -20120,13 +20299,13 @@
         <v>87.3</v>
       </c>
       <c r="I7" s="2">
+        <v>80.41</v>
+      </c>
+      <c r="J7" s="2">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="K7" s="2">
         <v>80.569999999999993</v>
-      </c>
-      <c r="J7" s="2">
-        <v>80.41</v>
-      </c>
-      <c r="K7" s="2">
-        <v>81.239999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -20137,13 +20316,13 @@
         <v>96.43</v>
       </c>
       <c r="C8">
+        <v>94.87</v>
+      </c>
+      <c r="D8">
+        <v>93.39</v>
+      </c>
+      <c r="E8">
         <v>94.03</v>
-      </c>
-      <c r="D8">
-        <v>94.87</v>
-      </c>
-      <c r="E8">
-        <v>93.39</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>30</v>
@@ -20152,13 +20331,13 @@
         <v>89.68</v>
       </c>
       <c r="I8">
+        <v>85.45</v>
+      </c>
+      <c r="J8">
+        <v>82.73</v>
+      </c>
+      <c r="K8">
         <v>83.54</v>
-      </c>
-      <c r="J8">
-        <v>85.45</v>
-      </c>
-      <c r="K8">
-        <v>82.73</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -20169,13 +20348,13 @@
         <v>96.43</v>
       </c>
       <c r="C9">
+        <v>95.59</v>
+      </c>
+      <c r="D9">
+        <v>93.17</v>
+      </c>
+      <c r="E9">
         <v>94.19</v>
-      </c>
-      <c r="D9">
-        <v>95.59</v>
-      </c>
-      <c r="E9">
-        <v>93.17</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>31</v>
@@ -20184,45 +20363,45 @@
         <v>88.1</v>
       </c>
       <c r="I9">
+        <v>81.13</v>
+      </c>
+      <c r="J9">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="K9">
         <v>80.77</v>
-      </c>
-      <c r="J9">
-        <v>81.13</v>
-      </c>
-      <c r="K9">
-        <v>80.760000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>96.83</v>
       </c>
       <c r="C10">
+        <v>95.97</v>
+      </c>
+      <c r="D10">
+        <v>94.12</v>
+      </c>
+      <c r="E10">
         <v>94.94</v>
       </c>
-      <c r="D10">
-        <v>95.97</v>
-      </c>
-      <c r="E10">
-        <v>94.12</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H10">
         <v>88.89</v>
       </c>
       <c r="I10">
+        <v>86.63</v>
+      </c>
+      <c r="J10">
+        <v>85.7</v>
+      </c>
+      <c r="K10">
         <v>85.81</v>
-      </c>
-      <c r="J10">
-        <v>86.63</v>
-      </c>
-      <c r="K10">
-        <v>85.7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -20233,13 +20412,13 @@
         <v>95.63</v>
       </c>
       <c r="C11">
+        <v>94.3</v>
+      </c>
+      <c r="D11">
+        <v>92.55</v>
+      </c>
+      <c r="E11">
         <v>93.31</v>
-      </c>
-      <c r="D11">
-        <v>94.3</v>
-      </c>
-      <c r="E11">
-        <v>92.55</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>34</v>
@@ -20248,13 +20427,13 @@
         <v>89.68</v>
       </c>
       <c r="I11">
+        <v>87.52</v>
+      </c>
+      <c r="J11">
+        <v>82.42</v>
+      </c>
+      <c r="K11">
         <v>83.39</v>
-      </c>
-      <c r="J11">
-        <v>87.52</v>
-      </c>
-      <c r="K11">
-        <v>82.42</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -20265,13 +20444,13 @@
         <v>96.83</v>
       </c>
       <c r="C12">
+        <v>96.71</v>
+      </c>
+      <c r="D12">
+        <v>93.44</v>
+      </c>
+      <c r="E12">
         <v>94.75</v>
-      </c>
-      <c r="D12">
-        <v>96.71</v>
-      </c>
-      <c r="E12">
-        <v>93.44</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>35</v>
@@ -20280,13 +20459,13 @@
         <v>87.3</v>
       </c>
       <c r="I12">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K12">
         <v>79.34</v>
-      </c>
-      <c r="J12">
-        <v>80</v>
-      </c>
-      <c r="K12">
-        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -20297,13 +20476,13 @@
         <v>96.43</v>
       </c>
       <c r="C13">
+        <v>95.64</v>
+      </c>
+      <c r="D13">
+        <v>93.77</v>
+      </c>
+      <c r="E13">
         <v>94.6</v>
-      </c>
-      <c r="D13">
-        <v>95.64</v>
-      </c>
-      <c r="E13">
-        <v>93.77</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>36</v>
@@ -20312,181 +20491,3000 @@
         <v>88.1</v>
       </c>
       <c r="I13">
+        <v>82.62</v>
+      </c>
+      <c r="J13">
+        <v>82.15</v>
+      </c>
+      <c r="K13">
         <v>82.12</v>
-      </c>
-      <c r="J13">
-        <v>82.62</v>
-      </c>
-      <c r="K13">
-        <v>82.15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>37</v>
+      <c r="A14" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>94.84</v>
+        <v>96.83</v>
       </c>
       <c r="C14">
-        <v>91.24</v>
+        <v>95.97</v>
       </c>
       <c r="D14">
-        <v>93.8</v>
+        <v>94.12</v>
       </c>
       <c r="E14">
-        <v>89.89</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>37</v>
+        <v>94.94</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="H14">
-        <v>85.32</v>
+        <v>88.89</v>
       </c>
       <c r="I14">
-        <v>82.28</v>
+        <v>86.63</v>
       </c>
       <c r="J14">
-        <v>80.8</v>
+        <v>85.7</v>
       </c>
       <c r="K14">
-        <v>84.28</v>
+        <v>85.81</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>38</v>
+      <c r="A15" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>95.24</v>
+        <v>94.05</v>
       </c>
       <c r="C15">
-        <v>93</v>
+        <v>91.99</v>
       </c>
       <c r="D15">
-        <v>93.92</v>
+        <v>90.85</v>
       </c>
       <c r="E15">
-        <v>92.27</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>91.39</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="H15">
-        <v>85.71</v>
+        <v>90.08</v>
       </c>
       <c r="I15">
-        <v>78.44</v>
+        <v>86.21</v>
       </c>
       <c r="J15">
-        <v>77.83</v>
+        <v>81.709999999999994</v>
       </c>
       <c r="K15">
-        <v>79.319999999999993</v>
+        <v>83.16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>39</v>
+      <c r="A16" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B16">
-        <v>90.48</v>
+        <v>94.44</v>
       </c>
       <c r="C16">
-        <v>87.15</v>
+        <v>92.19</v>
       </c>
       <c r="D16">
-        <v>91.86</v>
+        <v>91.39</v>
       </c>
       <c r="E16">
-        <v>85.49</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>91.74</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="H16">
-        <v>86.11</v>
+        <v>90.87</v>
       </c>
       <c r="I16">
-        <v>80.19</v>
+        <v>85.13</v>
       </c>
       <c r="J16">
-        <v>78.819999999999993</v>
+        <v>80.2</v>
       </c>
       <c r="K16">
-        <v>81.94</v>
+        <v>81.260000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
+      <c r="A17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>95.63</v>
+        <v>93.25</v>
       </c>
       <c r="C17">
-        <v>92.83</v>
+        <v>91.18</v>
       </c>
       <c r="D17">
-        <v>94.18</v>
+        <v>89.24</v>
       </c>
       <c r="E17">
-        <v>91.87</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>40</v>
+        <v>90.12</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="H17">
-        <v>88.1</v>
+        <v>91.67</v>
       </c>
       <c r="I17">
-        <v>82.94</v>
+        <v>85.09</v>
       </c>
       <c r="J17">
-        <v>81.569999999999993</v>
+        <v>85.88</v>
       </c>
       <c r="K17">
-        <v>84.71</v>
+        <v>85.46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>94.84</v>
+      </c>
+      <c r="C18">
+        <v>93.04</v>
+      </c>
+      <c r="D18">
+        <v>91.5</v>
+      </c>
+      <c r="E18">
+        <v>92.19</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18">
+        <v>91.27</v>
+      </c>
+      <c r="I18">
+        <v>84.55</v>
+      </c>
+      <c r="J18">
+        <v>82.49</v>
+      </c>
+      <c r="K18">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>94.84</v>
+      </c>
+      <c r="C19">
+        <v>93.04</v>
+      </c>
+      <c r="D19">
+        <v>91.5</v>
+      </c>
+      <c r="E19">
+        <v>92.19</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <v>91.67</v>
+      </c>
+      <c r="I19">
+        <v>87.92</v>
+      </c>
+      <c r="J19">
+        <v>84.16</v>
+      </c>
+      <c r="K19">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>94.44</v>
+      </c>
+      <c r="C20">
+        <v>92.82</v>
+      </c>
+      <c r="D20">
+        <v>91.06</v>
+      </c>
+      <c r="E20">
+        <v>91.86</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>91.67</v>
+      </c>
+      <c r="I20">
+        <v>88.85</v>
+      </c>
+      <c r="J20">
+        <v>84.52</v>
+      </c>
+      <c r="K20">
+        <v>85.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>96.83</v>
+      </c>
+      <c r="C21">
+        <v>96.7</v>
+      </c>
+      <c r="D21">
+        <v>94.05</v>
+      </c>
+      <c r="E21">
+        <v>95.17</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21">
+        <v>88.1</v>
+      </c>
+      <c r="I21">
+        <v>85.86</v>
+      </c>
+      <c r="J21">
+        <v>84.06</v>
+      </c>
+      <c r="K21">
+        <v>84.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
+        <f>(C15/100)^3</f>
+        <v>0.77843410759899989</v>
+      </c>
+      <c r="C25" s="3">
+        <f>(C16/100)^3</f>
+        <v>0.78352245045899982</v>
+      </c>
+      <c r="D25" s="3">
+        <f>(C17/100)^3</f>
+        <v>0.75805159103200015</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SUM(B25:D25)</f>
+        <v>2.32000814909</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
+      <c r="B26" s="3">
+        <f>(I15/100)^3</f>
+        <v>0.64072686706099991</v>
+      </c>
+      <c r="C26" s="3">
+        <f>(I16/100)^3</f>
+        <v>0.61694706169699987</v>
+      </c>
+      <c r="D26" s="3">
+        <f>(I17/100)^3</f>
+        <v>0.61607781622900004</v>
+      </c>
+      <c r="E26" s="3">
+        <f>SUM(B26:D26)</f>
+        <v>1.873751744987</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <f>B25/$E$25</f>
+        <v>0.33553076436577728</v>
+      </c>
+      <c r="C28" s="3">
+        <f>C25/$E$25</f>
+        <v>0.33772400789468288</v>
+      </c>
+      <c r="D28" s="3">
+        <f>D25/$E$25</f>
+        <v>0.32674522773953973</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <f t="shared" ref="B29:C29" si="0">B26/$E$26</f>
+        <v>0.34194864329022689</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32925763156595761</v>
+      </c>
+      <c r="D29" s="3">
+        <f>D26/$E$26</f>
+        <v>0.32879372514381533</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="G2:K18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>94.44</v>
       </c>
-      <c r="C18">
-        <v>90.94</v>
-      </c>
-      <c r="D18">
-        <v>93.56</v>
-      </c>
-      <c r="E18">
-        <v>89.55</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18">
-        <v>86.51</v>
-      </c>
-      <c r="I18">
-        <v>81.63</v>
-      </c>
-      <c r="J18">
-        <v>80.88</v>
-      </c>
-      <c r="K18">
-        <v>82.71</v>
-      </c>
+      <c r="C3" s="2">
+        <v>92.41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>92.12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>92.21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>86.9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="K3" s="2">
+        <v>80.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>96.03</v>
+      </c>
+      <c r="C4" s="2">
+        <v>95.26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>92.75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>93.81</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>88.1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>82.24</v>
+      </c>
+      <c r="J4" s="2">
+        <v>81.05</v>
+      </c>
+      <c r="K4" s="2">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>94.44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>91.94</v>
+      </c>
+      <c r="D5" s="2">
+        <v>91.66</v>
+      </c>
+      <c r="E5" s="2">
+        <v>91.76</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>87.3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>80.41</v>
+      </c>
+      <c r="J5" s="2">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="K5" s="2">
+        <v>80.569999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>96.83</v>
+      </c>
+      <c r="C6">
+        <v>95.97</v>
+      </c>
+      <c r="D6">
+        <v>94.12</v>
+      </c>
+      <c r="E6">
+        <v>94.94</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>88.89</v>
+      </c>
+      <c r="I6">
+        <v>86.63</v>
+      </c>
+      <c r="J6">
+        <v>85.7</v>
+      </c>
+      <c r="K6">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>96.43</v>
+      </c>
+      <c r="C7">
+        <v>95.64</v>
+      </c>
+      <c r="D7">
+        <v>93.77</v>
+      </c>
+      <c r="E7">
+        <v>94.6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>88.1</v>
+      </c>
+      <c r="I7">
+        <v>82.62</v>
+      </c>
+      <c r="J7">
+        <v>82.15</v>
+      </c>
+      <c r="K7">
+        <v>82.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>96.83</v>
+      </c>
+      <c r="C8">
+        <v>95.97</v>
+      </c>
+      <c r="D8">
+        <v>94.12</v>
+      </c>
+      <c r="E8">
+        <v>94.94</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>88.89</v>
+      </c>
+      <c r="I8">
+        <v>86.63</v>
+      </c>
+      <c r="J8">
+        <v>85.7</v>
+      </c>
+      <c r="K8">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>94.05</v>
+      </c>
+      <c r="C9">
+        <v>91.99</v>
+      </c>
+      <c r="D9">
+        <v>90.85</v>
+      </c>
+      <c r="E9">
+        <v>91.39</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>90.08</v>
+      </c>
+      <c r="I9">
+        <v>86.21</v>
+      </c>
+      <c r="J9">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="K9">
+        <v>83.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>94.44</v>
+      </c>
+      <c r="C10">
+        <v>92.19</v>
+      </c>
+      <c r="D10">
+        <v>91.39</v>
+      </c>
+      <c r="E10">
+        <v>91.74</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>90.87</v>
+      </c>
+      <c r="I10">
+        <v>85.13</v>
+      </c>
+      <c r="J10">
+        <v>80.2</v>
+      </c>
+      <c r="K10">
+        <v>81.260000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>93.25</v>
+      </c>
+      <c r="C11">
+        <v>91.18</v>
+      </c>
+      <c r="D11">
+        <v>89.24</v>
+      </c>
+      <c r="E11">
+        <v>90.12</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>91.67</v>
+      </c>
+      <c r="I11">
+        <v>85.09</v>
+      </c>
+      <c r="J11">
+        <v>85.88</v>
+      </c>
+      <c r="K11">
+        <v>85.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>94.84</v>
+      </c>
+      <c r="C12">
+        <v>93.04</v>
+      </c>
+      <c r="D12">
+        <v>91.5</v>
+      </c>
+      <c r="E12">
+        <v>92.19</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>91.27</v>
+      </c>
+      <c r="I12">
+        <v>84.55</v>
+      </c>
+      <c r="J12">
+        <v>82.49</v>
+      </c>
+      <c r="K12">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>94.84</v>
+      </c>
+      <c r="C13">
+        <v>93.04</v>
+      </c>
+      <c r="D13">
+        <v>91.5</v>
+      </c>
+      <c r="E13">
+        <v>92.19</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>91.67</v>
+      </c>
+      <c r="I13">
+        <v>87.92</v>
+      </c>
+      <c r="J13">
+        <v>84.16</v>
+      </c>
+      <c r="K13">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>94.44</v>
+      </c>
+      <c r="C14">
+        <v>92.82</v>
+      </c>
+      <c r="D14">
+        <v>91.06</v>
+      </c>
+      <c r="E14">
+        <v>91.86</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>91.67</v>
+      </c>
+      <c r="I14">
+        <v>88.85</v>
+      </c>
+      <c r="J14">
+        <v>84.52</v>
+      </c>
+      <c r="K14">
+        <v>85.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>96.83</v>
+      </c>
+      <c r="C15">
+        <v>96.7</v>
+      </c>
+      <c r="D15">
+        <v>94.05</v>
+      </c>
+      <c r="E15">
+        <v>95.17</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15">
+        <v>88.1</v>
+      </c>
+      <c r="I15">
+        <v>85.86</v>
+      </c>
+      <c r="J15">
+        <v>84.06</v>
+      </c>
+      <c r="K15">
+        <v>84.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="12">
+        <v>94.84</v>
+      </c>
+      <c r="C16" s="12">
+        <v>92.45</v>
+      </c>
+      <c r="D16" s="12">
+        <v>91.62</v>
+      </c>
+      <c r="E16" s="12">
+        <v>92.01</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="12">
+        <v>90.87</v>
+      </c>
+      <c r="I16" s="12">
+        <v>86.77</v>
+      </c>
+      <c r="J16" s="12">
+        <v>82.35</v>
+      </c>
+      <c r="K16" s="12">
+        <v>83.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="G28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>94.44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>92.41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>92.12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>92.21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>86.9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="K3" s="2">
+        <v>80.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>96.03</v>
+      </c>
+      <c r="C4" s="2">
+        <v>95.26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>92.75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>93.81</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>88.1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>82.24</v>
+      </c>
+      <c r="J4" s="2">
+        <v>81.05</v>
+      </c>
+      <c r="K4" s="2">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>94.44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>91.94</v>
+      </c>
+      <c r="D5" s="2">
+        <v>91.66</v>
+      </c>
+      <c r="E5" s="2">
+        <v>91.76</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>87.3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>80.41</v>
+      </c>
+      <c r="J5" s="2">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="K5" s="2">
+        <v>80.569999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>96.83</v>
+      </c>
+      <c r="C6">
+        <v>95.97</v>
+      </c>
+      <c r="D6">
+        <v>94.12</v>
+      </c>
+      <c r="E6">
+        <v>94.94</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>88.89</v>
+      </c>
+      <c r="I6">
+        <v>86.63</v>
+      </c>
+      <c r="J6">
+        <v>85.7</v>
+      </c>
+      <c r="K6">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>96.43</v>
+      </c>
+      <c r="C7">
+        <v>95.64</v>
+      </c>
+      <c r="D7">
+        <v>93.77</v>
+      </c>
+      <c r="E7">
+        <v>94.6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>88.1</v>
+      </c>
+      <c r="I7">
+        <v>82.62</v>
+      </c>
+      <c r="J7">
+        <v>82.15</v>
+      </c>
+      <c r="K7">
+        <v>82.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>96.83</v>
+      </c>
+      <c r="C8">
+        <v>95.97</v>
+      </c>
+      <c r="D8">
+        <v>94.12</v>
+      </c>
+      <c r="E8">
+        <v>94.94</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>88.89</v>
+      </c>
+      <c r="I8">
+        <v>86.63</v>
+      </c>
+      <c r="J8">
+        <v>85.7</v>
+      </c>
+      <c r="K8">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>96.83</v>
+      </c>
+      <c r="C9">
+        <v>95.97</v>
+      </c>
+      <c r="D9">
+        <v>94.12</v>
+      </c>
+      <c r="E9">
+        <v>94.94</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>88.89</v>
+      </c>
+      <c r="I9">
+        <v>85.94</v>
+      </c>
+      <c r="J9">
+        <v>85.46</v>
+      </c>
+      <c r="K9">
+        <v>85.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>96.83</v>
+      </c>
+      <c r="C14">
+        <v>95.97</v>
+      </c>
+      <c r="D14">
+        <v>94.12</v>
+      </c>
+      <c r="E14">
+        <v>94.94</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14">
+        <v>88.89</v>
+      </c>
+      <c r="I14">
+        <v>86.63</v>
+      </c>
+      <c r="J14">
+        <v>85.7</v>
+      </c>
+      <c r="K14">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>96.83</v>
+      </c>
+      <c r="C15">
+        <v>95.97</v>
+      </c>
+      <c r="D15">
+        <v>94.12</v>
+      </c>
+      <c r="E15">
+        <v>94.94</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <v>88.89</v>
+      </c>
+      <c r="I15">
+        <v>86.63</v>
+      </c>
+      <c r="J15">
+        <v>85.7</v>
+      </c>
+      <c r="K15">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>96.83</v>
+      </c>
+      <c r="C16">
+        <v>95.97</v>
+      </c>
+      <c r="D16">
+        <v>94.12</v>
+      </c>
+      <c r="E16">
+        <v>94.94</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>88.89</v>
+      </c>
+      <c r="I16">
+        <v>85.94</v>
+      </c>
+      <c r="J16">
+        <v>85.46</v>
+      </c>
+      <c r="K16">
+        <v>85.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>96.43</v>
+      </c>
+      <c r="C17">
+        <v>95.64</v>
+      </c>
+      <c r="D17">
+        <v>93.77</v>
+      </c>
+      <c r="E17">
+        <v>94.6</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <v>88.1</v>
+      </c>
+      <c r="I17">
+        <v>82.62</v>
+      </c>
+      <c r="J17">
+        <v>82.15</v>
+      </c>
+      <c r="K17">
+        <v>82.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>96.03</v>
+      </c>
+      <c r="C18" s="2">
+        <v>95.26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>92.75</v>
+      </c>
+      <c r="E18" s="2">
+        <v>93.81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>88.1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>82.24</v>
+      </c>
+      <c r="J18" s="2">
+        <v>81.05</v>
+      </c>
+      <c r="K18" s="2">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>94.44</v>
+      </c>
+      <c r="C19" s="2">
+        <v>92.41</v>
+      </c>
+      <c r="D19" s="2">
+        <v>92.12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>92.21</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>86.9</v>
+      </c>
+      <c r="I19">
+        <v>81.5</v>
+      </c>
+      <c r="J19">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="K19">
+        <v>80.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>94.44</v>
+      </c>
+      <c r="C20" s="2">
+        <v>91.94</v>
+      </c>
+      <c r="D20" s="2">
+        <v>91.66</v>
+      </c>
+      <c r="E20" s="2">
+        <v>91.76</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>87.3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>80.41</v>
+      </c>
+      <c r="J20" s="2">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="K20" s="2">
+        <v>80.569999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="14">
+        <v>93.68</v>
+      </c>
+      <c r="C21" s="14">
+        <v>92.43</v>
+      </c>
+      <c r="D21" s="14">
+        <v>90.13</v>
+      </c>
+      <c r="E21" s="14">
+        <v>91.04</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="14">
+        <v>88.54</v>
+      </c>
+      <c r="I21" s="14">
+        <v>83.51</v>
+      </c>
+      <c r="J21" s="14">
+        <v>78.36</v>
+      </c>
+      <c r="K21" s="14">
+        <v>80.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>94.07</v>
+      </c>
+      <c r="C22" s="16">
+        <v>93.05</v>
+      </c>
+      <c r="D22">
+        <v>89.09</v>
+      </c>
+      <c r="E22">
+        <v>90.41</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22">
+        <v>88.93</v>
+      </c>
+      <c r="I22" s="2">
+        <v>83.37</v>
+      </c>
+      <c r="J22" s="2">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="K22" s="2">
+        <v>79.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="14">
+        <v>93.28</v>
+      </c>
+      <c r="C23" s="16">
+        <v>92.53</v>
+      </c>
+      <c r="D23">
+        <v>88.43</v>
+      </c>
+      <c r="E23">
+        <v>89.79</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <v>86.96</v>
+      </c>
+      <c r="I23">
+        <v>83.14</v>
+      </c>
+      <c r="J23">
+        <v>74.8</v>
+      </c>
+      <c r="K23">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>93.28</v>
+      </c>
+      <c r="C24">
+        <v>90.55</v>
+      </c>
+      <c r="D24">
+        <v>88.51</v>
+      </c>
+      <c r="E24">
+        <v>89.24</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="14">
+        <v>86.96</v>
+      </c>
+      <c r="I24" s="14">
+        <v>80.38</v>
+      </c>
+      <c r="J24" s="14">
+        <v>73.13</v>
+      </c>
+      <c r="K24" s="14">
+        <v>75.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14">
+        <v>95.63</v>
+      </c>
+      <c r="C27" s="14">
+        <v>94.37</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>93.62</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="14">
+        <v>84.13</v>
+      </c>
+      <c r="I27" s="16">
+        <v>76.44</v>
+      </c>
+      <c r="J27" s="16">
+        <v>72.91</v>
+      </c>
+      <c r="K27" s="14">
+        <v>74.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="14">
+        <v>93.65</v>
+      </c>
+      <c r="C28" s="16">
+        <v>91.39</v>
+      </c>
+      <c r="D28" s="16">
+        <v>90.45</v>
+      </c>
+      <c r="E28" s="16">
+        <v>90.87</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="14">
+        <v>83.33</v>
+      </c>
+      <c r="I28" s="14">
+        <v>77.44</v>
+      </c>
+      <c r="J28" s="14">
+        <v>71.73</v>
+      </c>
+      <c r="K28" s="14">
+        <v>74.010000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="14">
+        <v>90.48</v>
+      </c>
+      <c r="C29" s="14">
+        <v>88.24</v>
+      </c>
+      <c r="D29" s="16">
+        <v>86.31</v>
+      </c>
+      <c r="E29" s="16">
+        <v>86.91</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="14">
+        <v>83.73</v>
+      </c>
+      <c r="I29" s="16">
+        <v>75.06</v>
+      </c>
+      <c r="J29" s="16">
+        <v>75.09</v>
+      </c>
+      <c r="K29" s="16">
+        <v>74.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="14">
+        <v>94.84</v>
+      </c>
+      <c r="C31" s="14">
+        <v>93.44</v>
+      </c>
+      <c r="D31" s="2">
+        <v>91.26</v>
+      </c>
+      <c r="E31" s="14">
+        <v>92.17</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="14">
+        <v>88.49</v>
+      </c>
+      <c r="I31">
+        <v>82.68</v>
+      </c>
+      <c r="J31">
+        <v>79.81</v>
+      </c>
+      <c r="K31">
+        <v>80.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>95.24</v>
+      </c>
+      <c r="C32">
+        <v>92.84</v>
+      </c>
+      <c r="D32" s="14">
+        <v>92.34</v>
+      </c>
+      <c r="E32" s="14">
+        <v>92.57</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="H32">
+        <v>88.49</v>
+      </c>
+      <c r="I32">
+        <v>83.43</v>
+      </c>
+      <c r="J32">
+        <v>82.81</v>
+      </c>
+      <c r="K32">
+        <v>82.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>94.05</v>
+      </c>
+      <c r="C33">
+        <v>92.44</v>
+      </c>
+      <c r="D33">
+        <v>91.1</v>
+      </c>
+      <c r="E33">
+        <v>91.65</v>
+      </c>
+      <c r="H33">
+        <v>88.1</v>
+      </c>
+      <c r="I33">
+        <v>85.4</v>
+      </c>
+      <c r="J33">
+        <v>83.42</v>
+      </c>
+      <c r="K33">
+        <v>84.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>96.83</v>
+      </c>
+      <c r="C36">
+        <v>96.72</v>
+      </c>
+      <c r="D36">
+        <v>93.44</v>
+      </c>
+      <c r="E36">
+        <v>94.76</v>
+      </c>
+      <c r="H36">
+        <v>88.89</v>
+      </c>
+      <c r="I36">
+        <v>83.67</v>
+      </c>
+      <c r="J36">
+        <v>81.3</v>
+      </c>
+      <c r="K36">
+        <v>82.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>95.63</v>
+      </c>
+      <c r="C37">
+        <v>94.26</v>
+      </c>
+      <c r="D37">
+        <v>92.69</v>
+      </c>
+      <c r="E37">
+        <v>93.37</v>
+      </c>
+      <c r="H37">
+        <v>88.1</v>
+      </c>
+      <c r="I37">
+        <v>84.58</v>
+      </c>
+      <c r="J37">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="K37">
+        <v>82.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>94.84</v>
+      </c>
+      <c r="C38">
+        <v>93.06</v>
+      </c>
+      <c r="D38">
+        <v>91.72</v>
+      </c>
+      <c r="E38">
+        <v>92.26</v>
+      </c>
+      <c r="H38">
+        <v>88.49</v>
+      </c>
+      <c r="I38">
+        <v>85.92</v>
+      </c>
+      <c r="J38">
+        <v>85.02</v>
+      </c>
+      <c r="K38">
+        <v>85.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39">
+        <v>97.22</v>
+      </c>
+      <c r="C39">
+        <v>96.97</v>
+      </c>
+      <c r="D39">
+        <v>93.94</v>
+      </c>
+      <c r="E39">
+        <v>95.14</v>
+      </c>
+      <c r="H39">
+        <v>89.29</v>
+      </c>
+      <c r="I39">
+        <v>85.37</v>
+      </c>
+      <c r="J39">
+        <v>82.69</v>
+      </c>
+      <c r="K39">
+        <v>83.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>97.22</v>
+      </c>
+      <c r="C40">
+        <v>96.25</v>
+      </c>
+      <c r="D40">
+        <v>94.62</v>
+      </c>
+      <c r="E40">
+        <v>95.33</v>
+      </c>
+      <c r="H40">
+        <v>89.68</v>
+      </c>
+      <c r="I40">
+        <v>86.92</v>
+      </c>
+      <c r="J40">
+        <v>84.79</v>
+      </c>
+      <c r="K40">
+        <v>85.54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>97.22</v>
+      </c>
+      <c r="C42">
+        <v>97.11</v>
+      </c>
+      <c r="D42">
+        <v>94.39</v>
+      </c>
+      <c r="E42">
+        <v>95.55</v>
+      </c>
+      <c r="H42">
+        <v>87.7</v>
+      </c>
+      <c r="I42">
+        <v>81.55</v>
+      </c>
+      <c r="J42">
+        <v>79.8</v>
+      </c>
+      <c r="K42">
+        <v>80.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>95.24</v>
+      </c>
+      <c r="C43">
+        <v>93.41</v>
+      </c>
+      <c r="D43">
+        <v>92.27</v>
+      </c>
+      <c r="E43">
+        <v>92.78</v>
+      </c>
+      <c r="H43">
+        <v>88.89</v>
+      </c>
+      <c r="I43">
+        <v>85.15</v>
+      </c>
+      <c r="J43">
+        <v>83.79</v>
+      </c>
+      <c r="K43">
+        <v>83.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>95.24</v>
+      </c>
+      <c r="C44">
+        <v>93.55</v>
+      </c>
+      <c r="D44">
+        <v>92.74</v>
+      </c>
+      <c r="E44">
+        <v>93.08</v>
+      </c>
+      <c r="H44">
+        <v>88.89</v>
+      </c>
+      <c r="I44">
+        <v>87.23</v>
+      </c>
+      <c r="J44">
+        <v>86.49</v>
+      </c>
+      <c r="K44">
+        <v>86.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>97.22</v>
+      </c>
+      <c r="C45">
+        <v>96.25</v>
+      </c>
+      <c r="D45">
+        <v>94.62</v>
+      </c>
+      <c r="E45">
+        <v>95.33</v>
+      </c>
+      <c r="H45">
+        <v>89.68</v>
+      </c>
+      <c r="I45">
+        <v>86.92</v>
+      </c>
+      <c r="J45">
+        <v>84.79</v>
+      </c>
+      <c r="K45">
+        <v>85.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G13:K24">
+    <sortState ref="G14:K24">
+      <sortCondition descending="1" ref="K13:K24"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>96.83</v>
+      </c>
+      <c r="C3">
+        <v>95.97</v>
+      </c>
+      <c r="D3">
+        <v>94.12</v>
+      </c>
+      <c r="E3">
+        <v>94.94</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>88.89</v>
+      </c>
+      <c r="I3">
+        <v>86.63</v>
+      </c>
+      <c r="J3">
+        <v>85.7</v>
+      </c>
+      <c r="K3">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>96.83</v>
+      </c>
+      <c r="C4">
+        <v>95.97</v>
+      </c>
+      <c r="D4">
+        <v>94.12</v>
+      </c>
+      <c r="E4">
+        <v>94.94</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>88.89</v>
+      </c>
+      <c r="I4">
+        <v>86.63</v>
+      </c>
+      <c r="J4">
+        <v>85.7</v>
+      </c>
+      <c r="K4">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>96.83</v>
+      </c>
+      <c r="C5">
+        <v>96.71</v>
+      </c>
+      <c r="D5">
+        <v>93.44</v>
+      </c>
+      <c r="E5">
+        <v>94.75</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>91.67</v>
+      </c>
+      <c r="I5">
+        <v>85.09</v>
+      </c>
+      <c r="J5">
+        <v>85.88</v>
+      </c>
+      <c r="K5">
+        <v>85.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>96.43</v>
+      </c>
+      <c r="C6">
+        <v>95.64</v>
+      </c>
+      <c r="D6">
+        <v>93.77</v>
+      </c>
+      <c r="E6">
+        <v>94.6</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>91.67</v>
+      </c>
+      <c r="I6">
+        <v>87.92</v>
+      </c>
+      <c r="J6">
+        <v>84.16</v>
+      </c>
+      <c r="K6">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>96.43</v>
+      </c>
+      <c r="C7">
+        <v>95.59</v>
+      </c>
+      <c r="D7">
+        <v>93.17</v>
+      </c>
+      <c r="E7">
+        <v>94.19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>89.68</v>
+      </c>
+      <c r="I7">
+        <v>85.45</v>
+      </c>
+      <c r="J7">
+        <v>82.73</v>
+      </c>
+      <c r="K7">
+        <v>83.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>96.43</v>
+      </c>
+      <c r="C8">
+        <v>94.87</v>
+      </c>
+      <c r="D8">
+        <v>93.39</v>
+      </c>
+      <c r="E8">
+        <v>94.03</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>89.68</v>
+      </c>
+      <c r="I8">
+        <v>87.52</v>
+      </c>
+      <c r="J8">
+        <v>82.42</v>
+      </c>
+      <c r="K8">
+        <v>83.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>96.03</v>
+      </c>
+      <c r="C9" s="2">
+        <v>95.26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>92.75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>93.81</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <v>91.27</v>
+      </c>
+      <c r="I9">
+        <v>84.55</v>
+      </c>
+      <c r="J9">
+        <v>82.49</v>
+      </c>
+      <c r="K9">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>95.63</v>
+      </c>
+      <c r="C10">
+        <v>94.3</v>
+      </c>
+      <c r="D10">
+        <v>92.55</v>
+      </c>
+      <c r="E10">
+        <v>93.31</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>90.08</v>
+      </c>
+      <c r="I10">
+        <v>86.21</v>
+      </c>
+      <c r="J10">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="K10">
+        <v>83.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>94.84</v>
+      </c>
+      <c r="C11" s="2">
+        <v>93.59</v>
+      </c>
+      <c r="D11" s="2">
+        <v>91.8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>92.59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>88.1</v>
+      </c>
+      <c r="I11">
+        <v>82.62</v>
+      </c>
+      <c r="J11">
+        <v>82.15</v>
+      </c>
+      <c r="K11">
+        <v>82.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>94.44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>92.41</v>
+      </c>
+      <c r="D12" s="2">
+        <v>92.12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>92.21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>88.1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>82.24</v>
+      </c>
+      <c r="J12" s="2">
+        <v>81.05</v>
+      </c>
+      <c r="K12" s="2">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>94.84</v>
+      </c>
+      <c r="C13">
+        <v>93.04</v>
+      </c>
+      <c r="D13">
+        <v>91.5</v>
+      </c>
+      <c r="E13">
+        <v>92.19</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <v>90.87</v>
+      </c>
+      <c r="I13">
+        <v>85.13</v>
+      </c>
+      <c r="J13">
+        <v>80.2</v>
+      </c>
+      <c r="K13">
+        <v>81.260000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>94.84</v>
+      </c>
+      <c r="C14">
+        <v>93.04</v>
+      </c>
+      <c r="D14">
+        <v>91.5</v>
+      </c>
+      <c r="E14">
+        <v>92.19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>86.9</v>
+      </c>
+      <c r="I14" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="K14" s="2">
+        <v>80.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>94.44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>91.94</v>
+      </c>
+      <c r="D15" s="2">
+        <v>91.66</v>
+      </c>
+      <c r="E15" s="2">
+        <v>91.76</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>88.1</v>
+      </c>
+      <c r="I15">
+        <v>81.13</v>
+      </c>
+      <c r="J15">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="K15">
+        <v>80.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>94.44</v>
+      </c>
+      <c r="C16">
+        <v>92.19</v>
+      </c>
+      <c r="D16">
+        <v>91.39</v>
+      </c>
+      <c r="E16">
+        <v>91.74</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>87.3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>80.41</v>
+      </c>
+      <c r="J16" s="2">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="K16" s="2">
+        <v>80.569999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>94.05</v>
+      </c>
+      <c r="C17">
+        <v>91.99</v>
+      </c>
+      <c r="D17">
+        <v>90.85</v>
+      </c>
+      <c r="E17">
+        <v>91.39</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>87.3</v>
+      </c>
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K17">
+        <v>79.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>93.25</v>
+      </c>
+      <c r="C18">
+        <v>91.18</v>
+      </c>
+      <c r="D18">
+        <v>89.24</v>
+      </c>
+      <c r="E18">
+        <v>90.12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>88.1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>81.41</v>
+      </c>
+      <c r="J18" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K18" s="2">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>93.25</v>
+      </c>
+      <c r="C19" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>90.1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>89.93</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>82.94</v>
+      </c>
+      <c r="I19" s="2">
+        <v>71.34</v>
+      </c>
+      <c r="J19" s="2">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="K19" s="2">
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="C23">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D23">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>0.16</v>
+      </c>
+      <c r="D25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G2:K19">
+    <sortState ref="G3:K19">
+      <sortCondition descending="1" ref="K2:K19"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A3:E22">
+    <sortCondition descending="1" ref="E3:E22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -20644,7 +23642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -21157,7 +24155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21170,19 +24168,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/experiment-result.xlsx
+++ b/experiment-result.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cofee" sheetId="2" r:id="rId1"/>
     <sheet name="innov" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="11" r:id="rId4"/>
-    <sheet name="sorted" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
-    <sheet name="cifar" sheetId="3" r:id="rId8"/>
-    <sheet name="plot_coffee" sheetId="4" r:id="rId9"/>
-    <sheet name="plot_cifar" sheetId="5" r:id="rId10"/>
+    <sheet name="Saji" sheetId="12" r:id="rId5"/>
+    <sheet name="sorted" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
+    <sheet name="cifar" sheetId="3" r:id="rId9"/>
+    <sheet name="plot_coffee" sheetId="4" r:id="rId10"/>
+    <sheet name="plot_cifar" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">innov!$G$2:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$18:$E$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$G$13:$K$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">sorted!$G$2:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">sorted!$G$2:$K$19</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">Sheet3!$E$3:$E$15</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">Sheet4!$E$2:$E$8</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$A$17:$E$37</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="74">
   <si>
     <t>Model</t>
   </si>
@@ -250,17 +251,23 @@
     <t>MobileNet</t>
   </si>
   <si>
-    <t>All</t>
+    <t>Augmentation Kherzepin</t>
   </si>
   <si>
-    <t>Bagging-2</t>
+    <t>Proposed Method</t>
+  </si>
+  <si>
+    <t>Diseases</t>
+  </si>
+  <si>
+    <t>Bagging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +296,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +332,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -313,10 +352,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,8 +401,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -20080,6 +20144,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T78" sqref="T78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
@@ -21572,10 +21651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21869,21 +21948,21 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -22489,272 +22568,188 @@
         <v>84.08</v>
       </c>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>67</v>
+      <c r="A35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>94.44</v>
+      </c>
+      <c r="C35">
+        <v>93.24</v>
+      </c>
+      <c r="D35">
+        <v>89.02</v>
+      </c>
+      <c r="E35">
+        <v>90.35</v>
+      </c>
+      <c r="H35">
+        <v>84.52</v>
+      </c>
+      <c r="I35">
+        <v>77.95</v>
+      </c>
+      <c r="J35">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K35">
+        <v>77.69</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3</v>
+      <c r="A36" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>96.83</v>
+        <v>92.46</v>
       </c>
       <c r="C36">
-        <v>96.72</v>
+        <v>89.69</v>
       </c>
       <c r="D36">
-        <v>93.44</v>
+        <v>88.86</v>
       </c>
       <c r="E36">
-        <v>94.76</v>
+        <v>89.19</v>
       </c>
       <c r="H36">
-        <v>88.89</v>
+        <v>84.92</v>
       </c>
       <c r="I36">
-        <v>83.67</v>
+        <v>78.27</v>
       </c>
       <c r="J36">
-        <v>81.3</v>
+        <v>70.73</v>
       </c>
       <c r="K36">
-        <v>82.18</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>68</v>
+      <c r="A37" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="B37">
-        <v>95.63</v>
+        <v>96.03</v>
       </c>
       <c r="C37">
-        <v>94.26</v>
+        <v>95.2</v>
       </c>
       <c r="D37">
-        <v>92.69</v>
+        <v>92.67</v>
       </c>
       <c r="E37">
-        <v>93.37</v>
+        <v>93.73</v>
       </c>
       <c r="H37">
-        <v>88.1</v>
+        <v>84.92</v>
       </c>
       <c r="I37">
-        <v>84.58</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="J37">
-        <v>81.290000000000006</v>
+        <v>78.52</v>
       </c>
       <c r="K37">
-        <v>82.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38">
-        <v>94.84</v>
-      </c>
-      <c r="C38">
-        <v>93.06</v>
-      </c>
-      <c r="D38">
-        <v>91.72</v>
-      </c>
-      <c r="E38">
-        <v>92.26</v>
-      </c>
-      <c r="H38">
-        <v>88.49</v>
-      </c>
-      <c r="I38">
-        <v>85.92</v>
-      </c>
-      <c r="J38">
-        <v>85.02</v>
-      </c>
-      <c r="K38">
-        <v>85.19</v>
+        <v>77.430000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39">
-        <v>97.22</v>
-      </c>
-      <c r="C39">
-        <v>96.97</v>
-      </c>
-      <c r="D39">
-        <v>93.94</v>
-      </c>
-      <c r="E39">
-        <v>95.14</v>
-      </c>
-      <c r="H39">
-        <v>89.29</v>
-      </c>
-      <c r="I39">
-        <v>85.37</v>
-      </c>
-      <c r="J39">
-        <v>82.69</v>
-      </c>
-      <c r="K39">
-        <v>83.64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
       <c r="B40">
-        <v>97.22</v>
+        <v>96.03</v>
       </c>
       <c r="C40">
-        <v>96.25</v>
+        <v>95.15</v>
       </c>
       <c r="D40">
-        <v>94.62</v>
+        <v>92.16</v>
       </c>
       <c r="E40">
-        <v>95.33</v>
+        <v>93.35</v>
       </c>
       <c r="H40">
-        <v>89.68</v>
+        <v>88.49</v>
       </c>
       <c r="I40">
-        <v>86.92</v>
+        <v>82.81</v>
       </c>
       <c r="J40">
-        <v>84.79</v>
+        <v>83.11</v>
       </c>
       <c r="K40">
-        <v>85.54</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>94.84</v>
+      </c>
+      <c r="C41">
+        <v>93.45</v>
+      </c>
+      <c r="D41">
+        <v>91.39</v>
+      </c>
+      <c r="E41">
+        <v>92.23</v>
+      </c>
+      <c r="H41">
+        <v>88.89</v>
+      </c>
+      <c r="I41">
+        <v>85.45</v>
+      </c>
+      <c r="J41">
+        <v>82.69</v>
+      </c>
+      <c r="K41">
+        <v>83.58</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B42">
-        <v>97.22</v>
+        <v>96.83</v>
       </c>
       <c r="C42">
-        <v>97.11</v>
+        <v>95.94</v>
       </c>
       <c r="D42">
-        <v>94.39</v>
+        <v>94.05</v>
       </c>
       <c r="E42">
-        <v>95.55</v>
+        <v>94.88</v>
       </c>
       <c r="H42">
-        <v>87.7</v>
+        <v>90.48</v>
       </c>
       <c r="I42">
-        <v>81.55</v>
+        <v>90.62</v>
       </c>
       <c r="J42">
-        <v>79.8</v>
+        <v>88.67</v>
       </c>
       <c r="K42">
-        <v>80.44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43">
-        <v>95.24</v>
-      </c>
-      <c r="C43">
-        <v>93.41</v>
-      </c>
-      <c r="D43">
-        <v>92.27</v>
-      </c>
-      <c r="E43">
-        <v>92.78</v>
-      </c>
-      <c r="H43">
-        <v>88.89</v>
-      </c>
-      <c r="I43">
-        <v>85.15</v>
-      </c>
-      <c r="J43">
-        <v>83.79</v>
-      </c>
-      <c r="K43">
-        <v>83.88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44">
-        <v>95.24</v>
-      </c>
-      <c r="C44">
-        <v>93.55</v>
-      </c>
-      <c r="D44">
-        <v>92.74</v>
-      </c>
-      <c r="E44">
-        <v>93.08</v>
-      </c>
-      <c r="H44">
-        <v>88.89</v>
-      </c>
-      <c r="I44">
-        <v>87.23</v>
-      </c>
-      <c r="J44">
-        <v>86.49</v>
-      </c>
-      <c r="K44">
-        <v>86.59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45">
-        <v>97.22</v>
-      </c>
-      <c r="C45">
-        <v>96.25</v>
-      </c>
-      <c r="D45">
-        <v>94.62</v>
-      </c>
-      <c r="E45">
-        <v>95.33</v>
-      </c>
-      <c r="H45">
-        <v>89.68</v>
-      </c>
-      <c r="I45">
-        <v>86.92</v>
-      </c>
-      <c r="J45">
-        <v>84.79</v>
-      </c>
-      <c r="K45">
-        <v>85.54</v>
+        <v>89.26</v>
       </c>
     </row>
   </sheetData>
@@ -22773,6 +22768,417 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="22">
+        <v>94.44</v>
+      </c>
+      <c r="C2" s="23">
+        <v>92.41</v>
+      </c>
+      <c r="D2" s="23">
+        <v>92.12</v>
+      </c>
+      <c r="E2" s="23">
+        <v>92.21</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="22">
+        <v>86.9</v>
+      </c>
+      <c r="I2" s="23">
+        <v>81.5</v>
+      </c>
+      <c r="J2" s="23">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="K2" s="23">
+        <v>80.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22">
+        <v>96.03</v>
+      </c>
+      <c r="C3" s="23">
+        <v>95.26</v>
+      </c>
+      <c r="D3" s="23">
+        <v>92.75</v>
+      </c>
+      <c r="E3" s="23">
+        <v>93.81</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="22">
+        <v>88.1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>82.24</v>
+      </c>
+      <c r="J3" s="23">
+        <v>81.05</v>
+      </c>
+      <c r="K3" s="23">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22">
+        <v>94.44</v>
+      </c>
+      <c r="C4" s="23">
+        <v>91.94</v>
+      </c>
+      <c r="D4" s="23">
+        <v>91.66</v>
+      </c>
+      <c r="E4" s="23">
+        <v>91.76</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="22">
+        <v>87.3</v>
+      </c>
+      <c r="I4" s="23">
+        <v>80.41</v>
+      </c>
+      <c r="J4" s="23">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="K4" s="23">
+        <v>80.569999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22">
+        <v>96.83</v>
+      </c>
+      <c r="C5" s="22">
+        <v>95.97</v>
+      </c>
+      <c r="D5" s="22">
+        <v>94.12</v>
+      </c>
+      <c r="E5" s="22">
+        <v>94.94</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="22">
+        <v>88.89</v>
+      </c>
+      <c r="I5" s="22">
+        <v>86.63</v>
+      </c>
+      <c r="J5" s="22">
+        <v>85.7</v>
+      </c>
+      <c r="K5" s="22">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="22">
+        <v>96.43</v>
+      </c>
+      <c r="C6" s="22">
+        <v>95.64</v>
+      </c>
+      <c r="D6" s="22">
+        <v>93.77</v>
+      </c>
+      <c r="E6" s="22">
+        <v>94.6</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="22">
+        <v>88.1</v>
+      </c>
+      <c r="I6" s="22">
+        <v>82.62</v>
+      </c>
+      <c r="J6" s="22">
+        <v>82.15</v>
+      </c>
+      <c r="K6" s="22">
+        <v>82.12</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25">
+        <v>96.03</v>
+      </c>
+      <c r="C7" s="25">
+        <v>95.15</v>
+      </c>
+      <c r="D7" s="25">
+        <v>92.16</v>
+      </c>
+      <c r="E7" s="25">
+        <v>93.35</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="25">
+        <v>88.49</v>
+      </c>
+      <c r="I7" s="25">
+        <v>82.81</v>
+      </c>
+      <c r="J7" s="25">
+        <v>83.11</v>
+      </c>
+      <c r="K7" s="25">
+        <v>82.79</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="25">
+        <v>94.84</v>
+      </c>
+      <c r="C8" s="25">
+        <v>93.45</v>
+      </c>
+      <c r="D8" s="25">
+        <v>91.39</v>
+      </c>
+      <c r="E8" s="25">
+        <v>92.23</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="25">
+        <v>88.89</v>
+      </c>
+      <c r="I8" s="25">
+        <v>85.45</v>
+      </c>
+      <c r="J8" s="25">
+        <v>82.69</v>
+      </c>
+      <c r="K8" s="25">
+        <v>83.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="27">
+        <v>96.83</v>
+      </c>
+      <c r="C9" s="27">
+        <v>95.94</v>
+      </c>
+      <c r="D9" s="27">
+        <v>94.05</v>
+      </c>
+      <c r="E9" s="27">
+        <v>94.88</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="27">
+        <v>90.48</v>
+      </c>
+      <c r="I9" s="27">
+        <v>90.62</v>
+      </c>
+      <c r="J9" s="27">
+        <v>88.67</v>
+      </c>
+      <c r="K9" s="27">
+        <v>89.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="30">
+        <v>93.28</v>
+      </c>
+      <c r="C12" s="31">
+        <v>92.53</v>
+      </c>
+      <c r="D12" s="30">
+        <v>88.43</v>
+      </c>
+      <c r="E12" s="30">
+        <v>89.79</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="30">
+        <v>88.93</v>
+      </c>
+      <c r="I12" s="31">
+        <v>83.37</v>
+      </c>
+      <c r="J12" s="31">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="K12" s="31">
+        <v>79.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="30">
+        <v>93.28</v>
+      </c>
+      <c r="C13" s="30">
+        <v>90.55</v>
+      </c>
+      <c r="D13" s="30">
+        <v>88.51</v>
+      </c>
+      <c r="E13" s="30">
+        <v>89.24</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="30">
+        <v>86.96</v>
+      </c>
+      <c r="I13" s="30">
+        <v>83.14</v>
+      </c>
+      <c r="J13" s="30">
+        <v>74.8</v>
+      </c>
+      <c r="K13" s="30">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="30">
+        <v>93.68</v>
+      </c>
+      <c r="C14" s="30">
+        <v>92.43</v>
+      </c>
+      <c r="D14" s="30">
+        <v>90.13</v>
+      </c>
+      <c r="E14" s="30">
+        <v>91.04</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="30">
+        <v>86.96</v>
+      </c>
+      <c r="I14" s="30">
+        <v>80.38</v>
+      </c>
+      <c r="J14" s="30">
+        <v>73.13</v>
+      </c>
+      <c r="K14" s="30">
+        <v>75.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -23472,7 +23878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -23484,7 +23890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -23642,7 +24048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -24153,19 +24559,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T78" sqref="T78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>